--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/3d-Rubiks-cube/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB6B08C-685F-EC4A-A03A-81FF185B0BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D2169-26C4-6445-8686-C582B83926E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="6640" windowWidth="39660" windowHeight="22260" activeTab="2" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="-420" yWindow="2480" windowWidth="24540" windowHeight="18860" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
-    <sheet name="blindformula" sheetId="2" r:id="rId2"/>
-    <sheet name="cfop" sheetId="3" r:id="rId3"/>
-    <sheet name="special" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="blindformula" sheetId="2" r:id="rId3"/>
+    <sheet name="cfop" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$J$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$J$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet4!$A$1:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="991">
   <si>
     <t>corner</t>
   </si>
@@ -2811,6 +2812,9 @@
     <t>底顶-分开-0-1-1</t>
   </si>
   <si>
+    <t>特殊</t>
+  </si>
+  <si>
     <t>R L' U D' F B' R' L U2 D2</t>
   </si>
   <si>
@@ -2979,7 +2983,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#C41E3A</t>
+  </si>
+  <si>
+    <t>#FF5800</t>
+  </si>
+  <si>
+    <t>#0051BA</t>
+  </si>
+  <si>
+    <t>#009E60</t>
+  </si>
+  <si>
+    <t>#FFD500</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3368,10 +3427,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3412,7 +3471,7 @@
         <v>898</v>
       </c>
       <c r="K1" t="s">
-        <v>898</v>
+        <v>989</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1">
@@ -3447,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2" t="str">
         <f>D2&amp;E2&amp;F2</f>
@@ -3486,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L10" si="0">D3&amp;E3&amp;F3</f>
@@ -3525,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
@@ -3564,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
@@ -3603,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
@@ -3642,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
@@ -3660,7 +3719,7 @@
         <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>972</v>
+        <v>988</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -3681,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
@@ -3720,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
@@ -3759,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
@@ -3806,22 +3865,22 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
@@ -3833,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1">
@@ -3841,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
@@ -3868,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1">
@@ -3876,22 +3935,22 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
@@ -3903,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1">
@@ -3938,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1">
@@ -3946,22 +4005,22 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -3973,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1">
@@ -3981,22 +4040,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
@@ -4008,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1">
@@ -4016,22 +4075,22 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
@@ -4043,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1">
@@ -4078,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1">
@@ -4113,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="str">
         <f>D20&amp;E20&amp;F20</f>
@@ -4125,22 +4184,22 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
         <v>65</v>
@@ -4155,8 +4214,8 @@
         <v>2</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:L28" si="1">D21&amp;E21&amp;F21</f>
-        <v>101</v>
+        <f>D21&amp;E21&amp;F21</f>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1">
@@ -4164,22 +4223,22 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>-1</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
         <v>65</v>
@@ -4191,11 +4250,11 @@
         <v>2</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v>1-11</v>
+        <f>D22&amp;E22&amp;F22</f>
+        <v>11-1</v>
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1">
@@ -4203,22 +4262,22 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>65</v>
@@ -4230,11 +4289,11 @@
         <v>2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>D23&amp;E23&amp;F23</f>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1">
@@ -4269,10 +4328,10 @@
         <v>2</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f>D24&amp;E24&amp;F24</f>
         <v>100</v>
       </c>
     </row>
@@ -4281,22 +4340,22 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>-1</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
         <v>65</v>
@@ -4308,11 +4367,11 @@
         <v>2</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v>1-10</v>
+        <f>D25&amp;E25&amp;F25</f>
+        <v>10-1</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1">
@@ -4320,22 +4379,22 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="F26">
-        <v>-1</v>
-      </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
         <v>65</v>
@@ -4347,11 +4406,11 @@
         <v>2</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v>11-1</v>
+        <f>D26&amp;E26&amp;F26</f>
+        <v>1-11</v>
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1">
@@ -4359,22 +4418,22 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
         <v>65</v>
@@ -4386,11 +4445,11 @@
         <v>2</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v>10-1</v>
+        <f>D27&amp;E27&amp;F27</f>
+        <v>1-10</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1">
@@ -4425,14 +4484,14 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f>D28&amp;E28&amp;F28</f>
         <v>1-1-1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4464,34 +4523,34 @@
         <v>3</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29" t="str">
         <f>D29&amp;E29&amp;F29</f>
         <v>11-1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
         <v>62</v>
@@ -4503,34 +4562,34 @@
         <v>3</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ref="L30:L37" si="2">D30&amp;E30&amp;F30</f>
-        <v>10-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <f>D30&amp;E30&amp;F30</f>
+        <v>1-1-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="H31" t="s">
         <v>62</v>
@@ -4545,31 +4604,31 @@
         <v>3</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="2"/>
-        <v>1-1-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <f>D31&amp;E31&amp;F31</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G32" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
         <v>62</v>
@@ -4581,14 +4640,14 @@
         <v>3</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <f>D32&amp;E32&amp;F32</f>
+        <v>10-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -4620,34 +4679,34 @@
         <v>3</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="2"/>
+        <f>D33&amp;E33&amp;F33</f>
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
         <v>62</v>
@@ -4659,22 +4718,22 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="2"/>
-        <v>1-10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <f>D34&amp;E34&amp;F34</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4683,10 +4742,10 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>62</v>
@@ -4698,34 +4757,34 @@
         <v>3</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <f>D35&amp;E35&amp;F35</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H36" t="s">
         <v>62</v>
@@ -4737,14 +4796,14 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <f>D36&amp;E36&amp;F36</f>
+        <v>1-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4776,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="2"/>
+        <f>D37&amp;E37&amp;F37</f>
         <v>1-11</v>
       </c>
     </row>
@@ -4815,7 +4874,7 @@
         <v>4</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L38" t="str">
         <f>D38&amp;E38&amp;F38</f>
@@ -4827,22 +4886,22 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H39" t="s">
         <v>3</v>
@@ -4854,11 +4913,11 @@
         <v>4</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" ref="L39:L46" si="3">D39&amp;E39&amp;F39</f>
-        <v>-110</v>
+        <f>D39&amp;E39&amp;F39</f>
+        <v>01-1</v>
       </c>
     </row>
     <row r="40" spans="1:12" hidden="1">
@@ -4866,22 +4925,22 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
@@ -4893,11 +4952,11 @@
         <v>4</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="3"/>
-        <v>-111</v>
+        <f>D40&amp;E40&amp;F40</f>
+        <v>11-1</v>
       </c>
     </row>
     <row r="41" spans="1:12" hidden="1">
@@ -4905,22 +4964,22 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -4932,11 +4991,11 @@
         <v>4</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="3"/>
-        <v>01-1</v>
+        <f>D41&amp;E41&amp;F41</f>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1">
@@ -4971,10 +5030,10 @@
         <v>4</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="3"/>
+        <f>D42&amp;E42&amp;F42</f>
         <v>010</v>
       </c>
     </row>
@@ -4983,22 +5042,22 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H43" t="s">
         <v>3</v>
@@ -5013,19 +5072,19 @@
         <v>4</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="3"/>
-        <v>011</v>
+        <f>D43&amp;E43&amp;F43</f>
+        <v>-110</v>
       </c>
     </row>
     <row r="44" spans="1:12" hidden="1">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5034,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
         <v>3</v>
@@ -5049,11 +5108,11 @@
         <v>4</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="3"/>
-        <v>11-1</v>
+        <f>D44&amp;E44&amp;F44</f>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:12" hidden="1">
@@ -5061,22 +5120,22 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
         <v>3</v>
@@ -5088,25 +5147,25 @@
         <v>4</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f>D45&amp;E45&amp;F45</f>
+        <v>011</v>
       </c>
     </row>
     <row r="46" spans="1:12" hidden="1">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -5115,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H46" t="s">
         <v>3</v>
@@ -5127,14 +5186,14 @@
         <v>4</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1">
+        <f>D46&amp;E46&amp;F46</f>
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5166,14 +5225,14 @@
         <v>5</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L47" t="str">
         <f>D47&amp;E47&amp;F47</f>
         <v>-1-11</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -5205,34 +5264,34 @@
         <v>5</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" ref="L48:L55" si="4">D48&amp;E48&amp;F48</f>
+        <f>D48&amp;E48&amp;F48</f>
         <v>-1-10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>-1</v>
       </c>
       <c r="F49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
         <v>37</v>
@@ -5244,34 +5303,34 @@
         <v>5</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="4"/>
-        <v>-1-1-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1">
+        <f>D49&amp;E49&amp;F49</f>
+        <v>1-11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>-1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
         <v>37</v>
@@ -5283,14 +5342,14 @@
         <v>5</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="4"/>
-        <v>0-11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" hidden="1">
+        <f>D50&amp;E50&amp;F50</f>
+        <v>1-10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5325,19 +5384,19 @@
         <v>5</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="4"/>
+        <f>D51&amp;E51&amp;F51</f>
         <v>0-10</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -5346,10 +5405,10 @@
         <v>-1</v>
       </c>
       <c r="F52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
         <v>37</v>
@@ -5361,34 +5420,34 @@
         <v>5</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="4"/>
-        <v>0-1-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" hidden="1">
+        <f>D52&amp;E52&amp;F52</f>
+        <v>0-11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E53">
         <v>-1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
         <v>37</v>
@@ -5400,34 +5459,34 @@
         <v>5</v>
       </c>
       <c r="K53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="4"/>
-        <v>1-11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" hidden="1">
+        <f>D53&amp;E53&amp;F53</f>
+        <v>-1-1-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>-1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
         <v>37</v>
@@ -5439,14 +5498,14 @@
         <v>5</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="4"/>
-        <v>1-10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" hidden="1">
+        <f>D54&amp;E54&amp;F54</f>
+        <v>0-1-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -5478,22 +5537,3642 @@
         <v>5</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="4"/>
+        <f>D55&amp;E55&amp;F55</f>
         <v>1-1-1</v>
       </c>
     </row>
+    <row r="56" spans="1:12" hidden="1">
+      <c r="K56" t="s">
+        <v>990</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J55" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}">
+  <autoFilter ref="A1:J56" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}">
     <filterColumn colId="8">
       <filters>
-        <filter val="L"/>
+        <filter val="D"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J55">
       <sortCondition ref="J2:J55"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:L55">
+    <sortCondition ref="I2:I56"/>
+    <sortCondition ref="K2:K56"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2024974-4AFB-6643-8C0F-33E22AABE4BC}">
+  <dimension ref="A1:C326"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C5" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C6" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C9" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C10" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C11" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C12" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C13" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C14" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C15" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C16" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C17" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C18" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C19" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C20" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C21" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C22" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C24" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C25" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C26" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C27" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C28" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C29" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C30" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C31" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C32" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C33" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C34" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C35" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C36" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C37" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C38" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C39" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C40" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C41" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C42" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C43" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C44" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C45" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C46" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C47" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C48" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C49" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C50" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C51" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C52" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C53" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C54" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C55" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C56" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C57" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C58" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C59" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C60" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C61" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C62" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C63" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C64" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C65" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C66" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C67" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C68" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C69" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C70" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C71" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C72" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C73" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C74" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C75" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C76" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C77" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C78" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C79" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C80" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C81" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C82" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C83" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C84" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C85" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C86" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C87" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C88" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C89" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C90" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C91" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C92" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C93" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C94" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C95" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C96" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C97" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C98" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C99" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C100" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C101" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C102" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C103" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C104" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C105" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C106" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C107" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C108" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C109" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C110" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C111" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C112" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C113" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C114" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C115" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C116" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C117" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C118" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C119" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C120" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C121" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C122" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C123" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C124" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C125" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C126" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C127" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C128" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C129" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C130" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C131" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C132" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C133" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C134" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C135" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C136" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C137" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C138" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C139" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C140" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C141" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C142" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C143" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C144" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C145" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C146" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C147" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C148" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C149" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C150" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C151" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C152" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C153" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C154" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C155" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C156" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C157" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C158" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C159" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C160" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C161" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C162" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C163" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C164" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C165" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C166" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C167" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C168" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C169" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C170" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C171" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C172" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C173" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C174" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C175" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C176" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C177" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C178" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C179" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C180" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C181" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C182" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C183" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C184" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C185" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C186" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C187" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C188" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C189" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C190" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C191" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C192" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C193" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C194" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C195" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C196" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C197" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C198" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C199" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C200" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C201" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C202" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C203" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C204" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C205" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C206" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C207" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C208" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C209" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C210" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C211" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C212" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C213" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C214" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C215" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C216" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C217" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C218" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C219" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C220" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C221" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C222" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C223" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C224" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C225" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C226" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C227" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C228" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C229" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C230" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C231" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C232" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C233" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C234" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C235" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C236" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C237" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C238" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C239" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C240" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C241" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C242" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C243" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C244" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C245" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C246" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C247" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C248" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C249" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C250" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C251" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C252" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C253" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C254" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C255" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C256" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C257" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C258" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C259" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C260" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C261" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C262" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C263" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C264" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C265" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C266" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C267" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C268" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C269" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C270" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C271" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>111</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C272" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C273" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C274" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C275" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C276" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C277" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C278" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C279" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C280" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C281" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C282" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C283" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C284" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C285" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C286" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C287" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C288" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C289" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C290" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C291" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C292" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C293" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C294" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C295" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C296" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C297" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C298" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C299" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C300" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C301" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C302" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C303" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C304" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C305" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C306" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C307" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C308" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C309" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C310" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C311" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C312" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C313" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C314" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C315" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C316" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C317" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C318" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C319" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C320" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C321" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C322" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C323" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C324" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C325" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C326" t="s">
+        <v>978</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C326" xr:uid="{A2024974-4AFB-6643-8C0F-33E22AABE4BC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C326">
+      <sortCondition ref="B2:B326"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5502,7 +9181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328E707-4BF8-F742-A3AD-B631A5FF09F8}">
   <dimension ref="A1:G201"/>
   <sheetViews>
@@ -8952,12 +12631,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A6:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8976,16 +12655,16 @@
         <v>900</v>
       </c>
       <c r="C1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D1" t="s">
         <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9055,329 +12734,313 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B6" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="C6" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="D6" t="s">
-        <v>935</v>
-      </c>
-      <c r="E6" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B7" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="C7" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="D7" t="s">
-        <v>939</v>
-      </c>
-      <c r="E7" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B8" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="C8" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="D8" t="s">
-        <v>942</v>
-      </c>
-      <c r="E8" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B9" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="C9" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="D9" t="s">
-        <v>945</v>
-      </c>
-      <c r="E9" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>927</v>
       </c>
       <c r="C10" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="D10" t="s">
-        <v>947</v>
-      </c>
-      <c r="E10" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="B11" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="C11" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="D11" t="s">
-        <v>950</v>
-      </c>
-      <c r="E11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>917</v>
+      </c>
+      <c r="B12" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" t="s">
         <v>932</v>
       </c>
-      <c r="B12" t="s">
-        <v>951</v>
-      </c>
-      <c r="C12" t="s">
-        <v>952</v>
-      </c>
       <c r="D12" t="s">
-        <v>953</v>
-      </c>
-      <c r="E12" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B13" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="C13" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="D13" t="s">
-        <v>956</v>
+        <v>936</v>
       </c>
       <c r="E13" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B14" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="C14" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D14" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="E14" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="B15" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="C15" t="s">
-        <v>962</v>
+        <v>942</v>
+      </c>
+      <c r="D15" t="s">
+        <v>943</v>
       </c>
       <c r="E15" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="B16" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="C16" t="s">
-        <v>964</v>
+        <v>945</v>
+      </c>
+      <c r="D16" t="s">
+        <v>946</v>
       </c>
       <c r="E16" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="B17" t="s">
-        <v>965</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
-        <v>966</v>
+        <v>947</v>
+      </c>
+      <c r="D17" t="s">
+        <v>948</v>
       </c>
       <c r="E17" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>933</v>
+      </c>
+      <c r="B18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C18" t="s">
+        <v>950</v>
+      </c>
+      <c r="D18" t="s">
+        <v>951</v>
+      </c>
+      <c r="E18" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>933</v>
+      </c>
+      <c r="B19" t="s">
+        <v>952</v>
+      </c>
+      <c r="C19" t="s">
+        <v>953</v>
+      </c>
+      <c r="D19" t="s">
+        <v>954</v>
+      </c>
+      <c r="E19" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>933</v>
+      </c>
+      <c r="B20" t="s">
+        <v>955</v>
+      </c>
+      <c r="C20" t="s">
+        <v>956</v>
+      </c>
+      <c r="D20" t="s">
+        <v>957</v>
+      </c>
+      <c r="E20" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>933</v>
+      </c>
+      <c r="B21" t="s">
+        <v>959</v>
+      </c>
+      <c r="C21" t="s">
+        <v>960</v>
+      </c>
+      <c r="D21" t="s">
+        <v>961</v>
+      </c>
+      <c r="E21" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>904</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
+        <v>962</v>
+      </c>
+      <c r="C22" t="s">
+        <v>963</v>
+      </c>
+      <c r="E22" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>904</v>
+      </c>
+      <c r="B23" t="s">
+        <v>964</v>
+      </c>
+      <c r="C23" t="s">
+        <v>965</v>
+      </c>
+      <c r="E23" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>904</v>
+      </c>
+      <c r="B24" t="s">
+        <v>966</v>
+      </c>
+      <c r="C24" t="s">
         <v>967</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E24" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>904</v>
+      </c>
+      <c r="B25" t="s">
         <v>968</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C25" t="s">
+        <v>969</v>
+      </c>
+      <c r="E25" t="s">
         <v>908</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3B9E-6890-6644-8530-D3E799FF9431}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="52.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>917</v>
-      </c>
-      <c r="B2" t="s">
-        <v>918</v>
-      </c>
-      <c r="C2" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>920</v>
-      </c>
-      <c r="B3" t="s">
-        <v>921</v>
-      </c>
-      <c r="C3" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B4" t="s">
-        <v>923</v>
-      </c>
-      <c r="C4" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>924</v>
-      </c>
-      <c r="B5" t="s">
-        <v>925</v>
-      </c>
-      <c r="C5" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>926</v>
-      </c>
-      <c r="B6" t="s">
-        <v>927</v>
-      </c>
-      <c r="C6" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>928</v>
-      </c>
-      <c r="B7" t="s">
-        <v>929</v>
-      </c>
-      <c r="C7" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>930</v>
-      </c>
-      <c r="B8" t="s">
-        <v>931</v>
-      </c>
-      <c r="C8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FB8BA2-172B-9B4B-9227-D09CD4E41366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76809939-AC95-084F-8137-9B1898F25269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2480" windowWidth="29080" windowHeight="19400" activeTab="2" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="17600" yWindow="13720" windowWidth="29080" windowHeight="19400" activeTab="2" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="special" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$J$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$L$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">blindformula!$A$1:$J$819</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet4!$A$1:$C$326</definedName>
   </definedNames>
@@ -6215,7 +6215,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L1,U4,U8,U2,F2,B2</t>
+    <t>L2,U4,U8,U2,F2,B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6603,11 +6603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6651,7 +6650,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6690,7 +6689,7 @@
         <v>-1-1-1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>-10-1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>-11-1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>0-1-1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>00-1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>01-1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>1-1-1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>10-1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>11-1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7072,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7107,7 +7106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7142,7 +7141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -7247,7 +7246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>11-1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>10-1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -7590,7 +7589,7 @@
         <v>1-11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>1-10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>1-1-1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -7703,31 +7702,31 @@
         <v>1</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f>D29&amp;E29&amp;F29</f>
         <v>11-1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H30" t="s">
         <v>62</v>
@@ -7739,14 +7738,14 @@
         <v>3</v>
       </c>
       <c r="K30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="1"/>
-        <v>1-1-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1">
+        <f>D30&amp;E30&amp;F30</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -7781,11 +7780,11 @@
         <v>3</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="1"/>
+        <f>D31&amp;E31&amp;F31</f>
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7820,11 +7819,11 @@
         <v>4</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="1"/>
+        <f>D32&amp;E32&amp;F32</f>
         <v>10-1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -7859,11 +7858,11 @@
         <v>5</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="1"/>
+        <f>D33&amp;E33&amp;F33</f>
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -7898,31 +7897,31 @@
         <v>6</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="1"/>
+        <f>D34&amp;E34&amp;F34</f>
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H35" t="s">
         <v>62</v>
@@ -7934,14 +7933,14 @@
         <v>3</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1">
+        <f>D35&amp;E35&amp;F35</f>
+        <v>1-1-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7976,11 +7975,11 @@
         <v>8</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="1"/>
+        <f>D36&amp;E36&amp;F36</f>
         <v>1-10</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -8015,11 +8014,11 @@
         <v>9</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="1"/>
+        <f>D37&amp;E37&amp;F37</f>
         <v>1-11</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -8058,7 +8057,7 @@
         <v>-11-1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>01-1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>11-1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>010</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -8253,7 +8252,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -8292,7 +8291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>011</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -8721,25 +8720,15 @@
         <v>1-1-1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1">
+    <row r="56" spans="1:12">
       <c r="K56" t="s">
         <v>789</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J56" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="D"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J55">
-      <sortCondition ref="J2:J55"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:L55">
-    <sortCondition ref="I2:I56"/>
-    <sortCondition ref="K2:K56"/>
+  <autoFilter ref="A1:L56" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:L37">
+    <sortCondition ref="K29:K56"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76809939-AC95-084F-8137-9B1898F25269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3CAB52-C452-DF44-9554-64EBF786D81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17600" yWindow="13720" windowWidth="29080" windowHeight="19400" activeTab="2" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
@@ -6215,7 +6215,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L2,U4,U8,U2,F2,B2</t>
+    <t>L2 U4 U8 U2 F2 B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61638192-5206-B64B-859B-8C5F83718231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76DBC1C-4B17-9A40-91FF-EDFBA18C966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="4840" windowWidth="29080" windowHeight="19400" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="1060" yWindow="11940" windowWidth="29080" windowHeight="19400" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="blindformula" sheetId="2" r:id="rId3"/>
     <sheet name="cfop" sheetId="3" r:id="rId4"/>
     <sheet name="special" sheetId="5" r:id="rId5"/>
+    <sheet name="reference" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$L$56</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="2019">
   <si>
     <t>corner</t>
   </si>
@@ -6101,6 +6102,50 @@
   </si>
   <si>
     <t>U R U R'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maru.tw/f2l-algorithm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2L公式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(U' R U R') U2 (R U' R')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶色相同型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y (U L' U' L) U2 (L' U L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(U' R U2 R') U2 (R U' R')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y (U L' U2 L) U2 (L' U L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y (L' U L) U2 y' (R U R')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(R U' R') U2 y (L' U' L)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6108,7 +6153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6119,6 +6164,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -6142,12 +6196,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6157,9 +6214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23790,17 +23851,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23928,6 +23989,90 @@
       </c>
       <c r="D9" t="s">
         <v>1998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -24018,4 +24163,41 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D3CE84-AC9B-A147-8309-3606006F464C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1996406D-8AFF-7241-A49D-CE2258334EFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76DBC1C-4B17-9A40-91FF-EDFBA18C966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931F850E-758D-FE4E-8A89-6F7E45062DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="11940" windowWidth="29080" windowHeight="19400" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="2019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="2023">
   <si>
     <t>corner</t>
   </si>
@@ -6068,11 +6068,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本型变体</t>
+    <t>基本型1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6146,6 +6142,26 @@
   </si>
   <si>
     <t>(R U' R') U2 y (L' U' L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本型3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本型4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本型1变体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L U L'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23851,10 +23867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23862,6 +23878,7 @@
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23884,13 +23901,13 @@
         <v>1997</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="C2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D2" t="s">
-        <v>1998</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -23898,13 +23915,13 @@
         <v>1997</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="C3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="s">
-        <v>1998</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -23915,7 +23932,7 @@
         <v>1998</v>
       </c>
       <c r="C4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D4" t="s">
         <v>1998</v>
@@ -23926,13 +23943,13 @@
         <v>1997</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D5" t="s">
-        <v>1998</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -23940,10 +23957,10 @@
         <v>1997</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="C6" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D6" t="s">
         <v>1998</v>
@@ -23954,10 +23971,10 @@
         <v>1997</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D7" t="s">
         <v>1998</v>
@@ -23968,10 +23985,10 @@
         <v>1997</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D8" t="s">
         <v>1998</v>
@@ -23982,10 +23999,10 @@
         <v>1997</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="C9" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D9" t="s">
         <v>1998</v>
@@ -23996,13 +24013,13 @@
         <v>1997</v>
       </c>
       <c r="B10" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D10" t="s">
         <v>2012</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -24010,13 +24027,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C11" t="s">
         <v>2013</v>
       </c>
-      <c r="C11" t="s">
-        <v>2014</v>
-      </c>
       <c r="D11" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -24024,13 +24041,13 @@
         <v>1997</v>
       </c>
       <c r="B12" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C12" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D12" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -24038,13 +24055,13 @@
         <v>1997</v>
       </c>
       <c r="B13" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D13" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -24052,13 +24069,13 @@
         <v>1997</v>
       </c>
       <c r="B14" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C14" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -24066,16 +24083,33 @@
         <v>1997</v>
       </c>
       <c r="B15" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C15" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+    <sortCondition ref="E2:E16"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -24169,7 +24203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D3CE84-AC9B-A147-8309-3606006F464C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -24179,18 +24215,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
   </sheetData>
@@ -24199,5 +24235,6 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1996406D-8AFF-7241-A49D-CE2258334EFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931F850E-758D-FE4E-8A89-6F7E45062DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D0302-5909-6F47-9B8D-05D83E538A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="11940" windowWidth="29080" windowHeight="19400" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="4860" yWindow="7780" windowWidth="54320" windowHeight="19400" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="2023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="2024">
   <si>
     <t>corner</t>
   </si>
@@ -6162,6 +6162,10 @@
   </si>
   <si>
     <t>L U L'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相切标准态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6220,7 +6224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6232,6 +6236,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23870,13 +23877,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
@@ -23886,7 +23893,7 @@
       <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>717</v>
       </c>
       <c r="C1" t="s">
@@ -23900,7 +23907,7 @@
       <c r="A2" t="s">
         <v>1997</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2019</v>
       </c>
       <c r="C2" t="s">
@@ -23914,7 +23921,7 @@
       <c r="A3" t="s">
         <v>1997</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>2018</v>
       </c>
       <c r="C3" t="s">
@@ -23928,8 +23935,8 @@
       <c r="A4" t="s">
         <v>1997</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1998</v>
+      <c r="B4" s="4" t="s">
+        <v>2023</v>
       </c>
       <c r="C4" t="s">
         <v>2001</v>
@@ -23942,7 +23949,7 @@
       <c r="A5" t="s">
         <v>1997</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>2020</v>
       </c>
       <c r="C5" t="s">
@@ -23956,7 +23963,7 @@
       <c r="A6" t="s">
         <v>1997</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>2021</v>
       </c>
       <c r="C6" t="s">
@@ -23970,7 +23977,7 @@
       <c r="A7" t="s">
         <v>1997</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>2021</v>
       </c>
       <c r="C7" t="s">
@@ -23984,7 +23991,7 @@
       <c r="A8" t="s">
         <v>1997</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>2021</v>
       </c>
       <c r="C8" t="s">
@@ -23998,7 +24005,7 @@
       <c r="A9" t="s">
         <v>1997</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>2021</v>
       </c>
       <c r="C9" t="s">
@@ -24012,7 +24019,7 @@
       <c r="A10" t="s">
         <v>1997</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>2012</v>
       </c>
       <c r="C10" t="s">
@@ -24026,7 +24033,7 @@
       <c r="A11" t="s">
         <v>1997</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>2012</v>
       </c>
       <c r="C11" t="s">
@@ -24040,7 +24047,7 @@
       <c r="A12" t="s">
         <v>1997</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>2012</v>
       </c>
       <c r="C12" t="s">
@@ -24054,7 +24061,7 @@
       <c r="A13" t="s">
         <v>1997</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>2012</v>
       </c>
       <c r="C13" t="s">
@@ -24068,7 +24075,7 @@
       <c r="A14" t="s">
         <v>1997</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>2012</v>
       </c>
       <c r="C14" t="s">
@@ -24082,7 +24089,7 @@
       <c r="A15" t="s">
         <v>1997</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>2012</v>
       </c>
       <c r="C15" t="s">
@@ -24096,8 +24103,8 @@
       <c r="A16" t="s">
         <v>1997</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>2021</v>
+      <c r="B16" s="4" t="s">
+        <v>2023</v>
       </c>
       <c r="C16" t="s">
         <v>2022</v>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D0302-5909-6F47-9B8D-05D83E538A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83D9DF7-26E4-094A-9836-D891BCF78C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="7780" windowWidth="54320" windowHeight="19400" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="3600" yWindow="3460" windowWidth="41900" windowHeight="19460" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$L$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">blindformula!$A$1:$J$819</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">cfop!$A$1:$D$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet4!$A$1:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="2022">
   <si>
     <t>corner</t>
   </si>
@@ -6072,17 +6073,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U,R U' R'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y U' L' U L</t>
-  </si>
-  <si>
     <t>R U R'</t>
-  </si>
-  <si>
-    <t>y L' U' L</t>
   </si>
   <si>
     <t>y' U R U R'</t>
@@ -6125,10 +6116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y (U L' U' L) U2 (L' U L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(U' R U2 R') U2 (R U' R')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6149,23 +6136,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本型3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本型4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本型1变体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L U L'</t>
+    <t>相切标准态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相切标准态</t>
+    <t>https://app.cubing.gg/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲冠军：Tymon课程链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">y L' U' L y'  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">U' R U2 R' U2 R U' R' </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23874,10 +23869,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23889,7 +23884,7 @@
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -23902,220 +23897,216 @@
       <c r="D1" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1997</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="D2" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1997</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="C3" t="s">
-        <v>2000</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2009</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1997</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2023</v>
+        <v>2009</v>
       </c>
       <c r="C4" t="s">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="D4" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2009</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1997</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C5" t="s">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="D5" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2009</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1997</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="C6" t="s">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D6" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2009</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1997</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="C7" t="s">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="D7" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2009</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1997</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C8" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="D8" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1997</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C9" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D9" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1997</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C10" t="s">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="D10" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1998</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1997</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C11" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="D11" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1998</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1997</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C12" t="s">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="D12" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1998</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1997</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C13" t="s">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2017</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>2023</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1998</v>
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
-    <sortCondition ref="E2:E16"/>
+  <autoFilter ref="A1:D16" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="D2:D12"/>
+    <sortCondition ref="E2:E12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24208,10 +24199,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D3CE84-AC9B-A147-8309-3606006F464C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24222,24 +24213,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B1" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2008</v>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1996406D-8AFF-7241-A49D-CE2258334EFB}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B9F0FE04-0DFE-664C-AED3-E1AD38459AC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83D9DF7-26E4-094A-9836-D891BCF78C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2697B-DA0F-CC42-BA56-ED10FA22C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="3460" windowWidth="41900" windowHeight="19460" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="9120" yWindow="7500" windowWidth="41900" windowHeight="19460" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="2028">
   <si>
     <t>corner</t>
   </si>
@@ -6116,22 +6116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(U' R U2 R') U2 (R U' R')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y (U L' U2 L) U2 (L' U L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y (L' U L) U2 y' (R U R')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(R U' R') U2 y (L' U' L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本型2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6161,6 +6145,45 @@
   </si>
   <si>
     <t xml:space="preserve">U' R U2 R' U2 R U' R' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y' U R' U' R U2 R' U R y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶色相同型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶色相同型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶色相同型3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y' U R' U2 R U2 R' U R y</t>
+  </si>
+  <si>
+    <t>顶色相同型4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y R' U R y U2 R U R'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶色相同型5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶色相同型6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R U' R' y U2  L' U' L y'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23872,7 +23895,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23898,7 +23921,7 @@
         <v>718</v>
       </c>
       <c r="E1" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -23906,7 +23929,7 @@
         <v>1997</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C2" t="s">
         <v>2008</v>
@@ -23923,10 +23946,10 @@
         <v>1997</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="D3" t="s">
         <v>2009</v>
@@ -23940,10 +23963,10 @@
         <v>1997</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="C4" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="D4" t="s">
         <v>2009</v>
@@ -23957,10 +23980,10 @@
         <v>1997</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="s">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="D5" t="s">
         <v>2009</v>
@@ -23974,10 +23997,10 @@
         <v>1997</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2009</v>
+        <v>2025</v>
       </c>
       <c r="C6" t="s">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="D6" t="s">
         <v>2009</v>
@@ -23991,10 +24014,10 @@
         <v>1997</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2009</v>
+        <v>2026</v>
       </c>
       <c r="C7" t="s">
-        <v>2013</v>
+        <v>2027</v>
       </c>
       <c r="D7" t="s">
         <v>2009</v>
@@ -24008,7 +24031,7 @@
         <v>1997</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C8" t="s">
         <v>1999</v>
@@ -24025,7 +24048,7 @@
         <v>1997</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C9" t="s">
         <v>2003</v>
@@ -24042,7 +24065,7 @@
         <v>1997</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C10" t="s">
         <v>2002</v>
@@ -24059,7 +24082,7 @@
         <v>1997</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="s">
         <v>2001</v>
@@ -24076,7 +24099,7 @@
         <v>1997</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C12" t="s">
         <v>2000</v>
@@ -24093,13 +24116,13 @@
         <v>1997</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
         <v>2016</v>
       </c>
-      <c r="C13" t="s">
-        <v>2020</v>
-      </c>
       <c r="D13" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -24229,10 +24252,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
     </row>
   </sheetData>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2697B-DA0F-CC42-BA56-ED10FA22C5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69A416-4B48-4048-A22A-F11578C0FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="7500" windowWidth="41900" windowHeight="19460" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="12640" yWindow="9480" windowWidth="41900" windowHeight="19460" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="2028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="2010">
   <si>
     <t>corner</t>
   </si>
@@ -6069,29 +6069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本型1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R U R'</t>
-  </si>
-  <si>
-    <t>y' U R U R'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y2 U2 R U R'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y U' R U R'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U R U R'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6108,26 +6085,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(U' R U R') U2 (R U' R')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶色相同型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本型2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本型1变体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相切标准态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://app.cubing.gg/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6140,50 +6097,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">y L' U' L y'  </t>
+    <t>R U' R'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">U' R U2 R' U2 R U' R' </t>
+    <t>基本1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y' U R' U' R U2 R' U R y</t>
+    <t>基本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顶色相同型1</t>
+    <t>基本2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顶色相同型2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶色相同型3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y' U R' U2 R U2 R' U R y</t>
-  </si>
-  <si>
-    <t>顶色相同型4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y R' U R y U2 R U R'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶色相同型5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶色相同型6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R U' R' y U2  L' U' L y'</t>
+    <t>F3 U9 R1 F6 R4 F9 R7 D3 L1 U1 B3 U2 B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12342,7 +12272,7 @@
   <dimension ref="A1:J819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23887,15 +23817,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23904,10 +23835,10 @@
     <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -23921,208 +23852,47 @@
         <v>718</v>
       </c>
       <c r="E1" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>2004</v>
+      </c>
+      <c r="F1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1997</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2019</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2008</v>
+        <v>2006</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1997</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2017</v>
+        <v>2008</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2005</v>
       </c>
       <c r="D3" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2023</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2025</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2024</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2026</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2009</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1999</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E8">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -24236,26 +24006,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="B1" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2013</v>
+        <v>2002</v>
       </c>
     </row>
   </sheetData>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69A416-4B48-4048-A22A-F11578C0FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1EE8C-FE93-B749-8C6D-A61A55552975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12640" yWindow="9480" windowWidth="41900" windowHeight="19460" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="2014">
   <si>
     <t>corner</t>
   </si>
@@ -6109,11 +6109,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本2</t>
+    <t>F3 U9 R1 F6 R4 F9 R7 D3 L1 U1 B3 U2 B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F3 U9 R1 F6 R4 F9 R7 D3 L1 U1 B3 U2 B2</t>
+    <t>基本1-左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L' U L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4 L6 F7 L9 D1 U2 B2 U3 R3 B1 F1 U7 L3 F3 U9 R1 U6 R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6523,10 +6539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}">
-  <dimension ref="A1:L56"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6535,7 +6552,7 @@
     <col min="4" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -6570,7 +6587,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6609,7 +6626,7 @@
         <v>-1-1-1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6644,11 +6661,11 @@
         <v>6</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L10" si="0">D3&amp;E3&amp;F3</f>
+        <f t="shared" ref="L3:L19" si="0">D3&amp;E3&amp;F3</f>
         <v>-10-1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6687,7 +6704,7 @@
         <v>-11-1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6726,7 +6743,7 @@
         <v>0-1-1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6765,7 +6782,7 @@
         <v>00-1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6804,7 +6821,7 @@
         <v>01-1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6843,7 +6860,7 @@
         <v>1-1-1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -6882,7 +6899,7 @@
         <v>10-1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -6921,7 +6938,7 @@
         <v>11-1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6955,8 +6972,15 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>-111</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -6990,8 +7014,13 @@
       <c r="K12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>011</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7025,8 +7054,13 @@
       <c r="K13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -7060,8 +7094,15 @@
       <c r="K14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>-101</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7095,8 +7136,13 @@
       <c r="K15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>001</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -7130,8 +7176,13 @@
       <c r="K16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -7165,8 +7216,13 @@
       <c r="K17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>-1-11</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -7200,8 +7256,13 @@
       <c r="K18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>0-11</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7235,8 +7296,13 @@
       <c r="K19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>1-11</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -7275,7 +7341,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -7314,7 +7380,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -7353,7 +7419,7 @@
         <v>11-1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -7392,7 +7458,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -7431,7 +7497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -7470,7 +7536,7 @@
         <v>10-1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -7509,7 +7575,7 @@
         <v>1-11</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7548,7 +7614,7 @@
         <v>1-10</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -7587,7 +7653,7 @@
         <v>1-1-1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -7626,7 +7692,7 @@
         <v>11-1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7665,7 +7731,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -7704,7 +7770,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7743,7 +7809,7 @@
         <v>10-1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -7782,7 +7848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -7821,7 +7887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -7860,7 +7926,7 @@
         <v>1-1-1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7899,7 +7965,7 @@
         <v>1-10</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -7938,7 +8004,7 @@
         <v>1-11</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -7977,7 +8043,7 @@
         <v>-11-1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8016,7 +8082,7 @@
         <v>01-1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -8055,7 +8121,7 @@
         <v>11-1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -8094,7 +8160,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -8133,7 +8199,7 @@
         <v>010</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -8172,7 +8238,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -8211,7 +8277,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -8250,7 +8316,7 @@
         <v>011</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -8289,7 +8355,7 @@
         <v>-111</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -8328,7 +8394,7 @@
         <v>-1-11</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -8367,7 +8433,7 @@
         <v>-1-10</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" hidden="1">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8472,7 @@
         <v>1-11</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" hidden="1">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +8511,7 @@
         <v>1-10</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" hidden="1">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -8484,7 +8550,7 @@
         <v>0-10</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" hidden="1">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -8523,7 +8589,7 @@
         <v>0-11</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" hidden="1">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -8562,7 +8628,7 @@
         <v>-1-1-1</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" hidden="1">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -8601,7 +8667,7 @@
         <v>0-1-1</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" hidden="1">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -8640,13 +8706,19 @@
         <v>1-1-1</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" hidden="1">
       <c r="K56" t="s">
         <v>737</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L56" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}"/>
+  <autoFilter ref="A1:L56" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="red"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:L37">
     <sortCondition ref="K29:K56"/>
   </sortState>
@@ -23826,7 +23898,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23875,7 +23947,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -23883,16 +23955,19 @@
         <v>1997</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D3" t="s">
         <v>2007</v>
       </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1EE8C-FE93-B749-8C6D-A61A55552975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65AA83A-638D-D04D-8108-5407BF8C31BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="9480" windowWidth="41900" windowHeight="19460" activeTab="3" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="12640" yWindow="2040" windowWidth="43700" windowHeight="31180" activeTab="1" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="blindformula" sheetId="2" r:id="rId3"/>
-    <sheet name="cfop" sheetId="3" r:id="rId4"/>
-    <sheet name="special" sheetId="5" r:id="rId5"/>
-    <sheet name="reference" sheetId="6" r:id="rId6"/>
+    <sheet name="cfop" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="blindformula" sheetId="2" r:id="rId5"/>
+    <sheet name="special" sheetId="5" r:id="rId6"/>
+    <sheet name="reference" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$L$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">blindformula!$A$1:$J$819</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">cfop!$A$1:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet4!$A$1:$C$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">blindformula!$A$1:$J$819</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="2043">
   <si>
     <t>corner</t>
   </si>
@@ -6097,6 +6098,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>R U' R'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6129,7 +6154,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F4 L6 F7 L9 D1 U2 B2 U3 R3 B1 F1 U7 L3 F3 U9 R1 U6 R2</t>
+    <t>初始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黄蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1 U7 L3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4 L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红白蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7 D1 L9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙黄绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1 R3 U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2 U2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黄绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3 U9 R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U6 R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2 U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1 U7 L3 F4 L6 F7 D1 L9 B1 R3 U3 B2 U2 F3 U9 R1 U6 R2 F2 U8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6977,7 +7094,7 @@
         <v>-111</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7099,7 +7216,7 @@
         <v>-101</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8729,11 +8846,206 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2024974-4AFB-6643-8C0F-33E22AABE4BC}">
-  <dimension ref="A1:C326"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D16" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="D2:D12"/>
+    <sortCondition ref="E2:E12"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827227EA-6075-3644-B740-1B43E27A042F}">
+  <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2024974-4AFB-6643-8C0F-33E22AABE4BC}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F326"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8741,7 +9053,7 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -8751,8 +9063,17 @@
       <c r="C1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
@@ -8763,7 +9084,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -8774,7 +9095,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -8784,8 +9105,14 @@
       <c r="C4" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -8796,7 +9123,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -8807,7 +9134,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
@@ -8818,7 +9145,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -8829,7 +9156,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -8840,7 +9167,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -8850,8 +9177,14 @@
       <c r="C10" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -8862,7 +9195,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -8873,7 +9206,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -8883,8 +9216,14 @@
       <c r="C13" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -8895,7 +9234,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>732</v>
       </c>
@@ -8906,7 +9245,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>90</v>
       </c>
@@ -8917,7 +9256,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -8928,7 +9267,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -8939,7 +9278,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -8949,8 +9288,14 @@
       <c r="C19" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -8961,7 +9306,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -8972,7 +9317,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -8982,8 +9327,14 @@
       <c r="C22" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -8994,7 +9345,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -9005,7 +9356,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
@@ -9016,7 +9367,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -9026,8 +9377,11 @@
       <c r="C26" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -9038,7 +9392,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -9048,8 +9402,14 @@
       <c r="C28" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -9060,7 +9420,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
@@ -9071,7 +9431,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -9082,7 +9442,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -9093,7 +9453,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -9104,7 +9464,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
@@ -9114,8 +9474,14 @@
       <c r="C34" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -9126,7 +9492,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -9137,7 +9503,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -9148,7 +9514,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -9159,7 +9525,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -9170,7 +9536,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -9181,7 +9547,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -9192,7 +9558,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>732</v>
       </c>
@@ -9203,7 +9569,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -9213,8 +9579,14 @@
       <c r="C43" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -9224,8 +9596,11 @@
       <c r="C44" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -9236,7 +9611,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -9247,7 +9622,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -9258,7 +9633,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>87</v>
       </c>
@@ -9269,7 +9644,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -9280,7 +9655,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
@@ -9291,7 +9666,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
@@ -9302,7 +9677,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
@@ -9312,8 +9687,14 @@
       <c r="C52" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
@@ -9324,7 +9705,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -9335,7 +9716,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -9346,7 +9727,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
@@ -9357,7 +9738,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="1" t="s">
         <v>85</v>
       </c>
@@ -9368,7 +9749,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
@@ -9379,7 +9760,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
@@ -9390,7 +9771,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="1" t="s">
         <v>92</v>
       </c>
@@ -9401,7 +9782,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="1" t="s">
         <v>89</v>
       </c>
@@ -9412,7 +9793,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
@@ -9423,7 +9804,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -9434,7 +9815,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -9444,8 +9825,11 @@
       <c r="C64" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -9456,7 +9840,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
@@ -9467,7 +9851,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" hidden="1">
       <c r="A67" s="1" t="s">
         <v>48</v>
       </c>
@@ -9478,7 +9862,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
@@ -9489,7 +9873,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" hidden="1">
       <c r="A69" s="1" t="s">
         <v>732</v>
       </c>
@@ -9500,7 +9884,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70" s="1" t="s">
         <v>90</v>
       </c>
@@ -9511,7 +9895,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" hidden="1">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -9522,7 +9906,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -9533,7 +9917,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" hidden="1">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -9544,7 +9928,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -9555,7 +9939,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" hidden="1">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -9566,7 +9950,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -9577,7 +9961,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" hidden="1">
       <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
@@ -9588,7 +9972,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
@@ -9599,7 +9983,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" hidden="1">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -9610,7 +9994,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" hidden="1">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -9621,7 +10005,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -9632,7 +10016,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
@@ -9643,7 +10027,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -9654,7 +10038,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -9665,7 +10049,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -9676,7 +10060,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -9687,7 +10071,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -9698,7 +10082,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" hidden="1">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -9709,7 +10093,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89" s="1" t="s">
         <v>73</v>
       </c>
@@ -9720,7 +10104,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" s="1" t="s">
         <v>72</v>
       </c>
@@ -9731,7 +10115,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" s="1" t="s">
         <v>71</v>
       </c>
@@ -9742,7 +10126,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" s="1" t="s">
         <v>82</v>
       </c>
@@ -9753,7 +10137,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" s="1" t="s">
         <v>45</v>
       </c>
@@ -9764,7 +10148,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" s="1" t="s">
         <v>48</v>
       </c>
@@ -9775,7 +10159,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" s="1" t="s">
         <v>29</v>
       </c>
@@ -9786,7 +10170,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" s="1" t="s">
         <v>732</v>
       </c>
@@ -9797,7 +10181,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" s="1" t="s">
         <v>90</v>
       </c>
@@ -9808,7 +10192,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" s="1" t="s">
         <v>76</v>
       </c>
@@ -9819,7 +10203,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" s="1" t="s">
         <v>75</v>
       </c>
@@ -9830,7 +10214,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" s="1" t="s">
         <v>74</v>
       </c>
@@ -9841,7 +10225,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" s="1" t="s">
         <v>84</v>
       </c>
@@ -9852,7 +10236,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" s="1" t="s">
         <v>87</v>
       </c>
@@ -9863,7 +10247,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" s="1" t="s">
         <v>88</v>
       </c>
@@ -9874,7 +10258,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" s="1" t="s">
         <v>83</v>
       </c>
@@ -9885,7 +10269,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" s="1" t="s">
         <v>93</v>
       </c>
@@ -9896,7 +10280,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" s="1" t="s">
         <v>91</v>
       </c>
@@ -9907,7 +10291,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" s="1" t="s">
         <v>79</v>
       </c>
@@ -9918,7 +10302,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" s="1" t="s">
         <v>78</v>
       </c>
@@ -9929,7 +10313,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" s="1" t="s">
         <v>77</v>
       </c>
@@ -9940,7 +10324,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" s="1" t="s">
         <v>81</v>
       </c>
@@ -9951,7 +10335,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" s="1" t="s">
         <v>85</v>
       </c>
@@ -9962,7 +10346,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" s="1" t="s">
         <v>86</v>
       </c>
@@ -9973,7 +10357,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" s="1" t="s">
         <v>80</v>
       </c>
@@ -9984,7 +10368,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" s="1" t="s">
         <v>92</v>
       </c>
@@ -9995,7 +10379,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" s="1" t="s">
         <v>89</v>
       </c>
@@ -10006,7 +10390,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" s="1" t="s">
         <v>73</v>
       </c>
@@ -10017,7 +10401,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" s="1" t="s">
         <v>72</v>
       </c>
@@ -10028,7 +10412,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" s="1" t="s">
         <v>71</v>
       </c>
@@ -10039,7 +10423,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" s="1" t="s">
         <v>82</v>
       </c>
@@ -10050,7 +10434,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" s="1" t="s">
         <v>45</v>
       </c>
@@ -10061,7 +10445,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" s="1" t="s">
         <v>48</v>
       </c>
@@ -10072,7 +10456,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" s="1" t="s">
         <v>29</v>
       </c>
@@ -10083,7 +10467,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" s="1" t="s">
         <v>732</v>
       </c>
@@ -10094,7 +10478,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" s="1" t="s">
         <v>90</v>
       </c>
@@ -10105,7 +10489,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" s="1" t="s">
         <v>76</v>
       </c>
@@ -10116,7 +10500,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" s="1" t="s">
         <v>75</v>
       </c>
@@ -10127,7 +10511,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" s="1" t="s">
         <v>74</v>
       </c>
@@ -10138,7 +10522,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" s="1" t="s">
         <v>84</v>
       </c>
@@ -10149,7 +10533,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" hidden="1">
       <c r="A129" s="1" t="s">
         <v>87</v>
       </c>
@@ -10160,7 +10544,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" hidden="1">
       <c r="A130" s="1" t="s">
         <v>88</v>
       </c>
@@ -10171,7 +10555,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" hidden="1">
       <c r="A131" s="1" t="s">
         <v>83</v>
       </c>
@@ -10182,7 +10566,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" hidden="1">
       <c r="A132" s="1" t="s">
         <v>93</v>
       </c>
@@ -10193,7 +10577,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" hidden="1">
       <c r="A133" s="1" t="s">
         <v>91</v>
       </c>
@@ -10204,7 +10588,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" hidden="1">
       <c r="A134" s="1" t="s">
         <v>79</v>
       </c>
@@ -10215,7 +10599,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" hidden="1">
       <c r="A135" s="1" t="s">
         <v>78</v>
       </c>
@@ -10226,7 +10610,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" hidden="1">
       <c r="A136" s="1" t="s">
         <v>77</v>
       </c>
@@ -10237,7 +10621,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" hidden="1">
       <c r="A137" s="1" t="s">
         <v>81</v>
       </c>
@@ -10248,7 +10632,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" hidden="1">
       <c r="A138" s="1" t="s">
         <v>85</v>
       </c>
@@ -10259,7 +10643,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" hidden="1">
       <c r="A139" s="1" t="s">
         <v>86</v>
       </c>
@@ -10270,7 +10654,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" hidden="1">
       <c r="A140" s="1" t="s">
         <v>80</v>
       </c>
@@ -10281,7 +10665,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" hidden="1">
       <c r="A141" s="1" t="s">
         <v>92</v>
       </c>
@@ -10292,7 +10676,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" hidden="1">
       <c r="A142" s="1" t="s">
         <v>89</v>
       </c>
@@ -10303,7 +10687,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" hidden="1">
       <c r="A143" s="1" t="s">
         <v>73</v>
       </c>
@@ -10314,7 +10698,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" hidden="1">
       <c r="A144" s="1" t="s">
         <v>72</v>
       </c>
@@ -10325,7 +10709,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145" s="1" t="s">
         <v>71</v>
       </c>
@@ -10336,7 +10720,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" hidden="1">
       <c r="A146" s="1" t="s">
         <v>82</v>
       </c>
@@ -10347,7 +10731,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" hidden="1">
       <c r="A147" s="1" t="s">
         <v>45</v>
       </c>
@@ -10358,7 +10742,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" hidden="1">
       <c r="A148" s="1" t="s">
         <v>48</v>
       </c>
@@ -10369,7 +10753,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" hidden="1">
       <c r="A149" s="1" t="s">
         <v>29</v>
       </c>
@@ -10380,7 +10764,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" hidden="1">
       <c r="A150" s="1" t="s">
         <v>732</v>
       </c>
@@ -10391,7 +10775,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" hidden="1">
       <c r="A151" s="1" t="s">
         <v>90</v>
       </c>
@@ -10402,7 +10786,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" hidden="1">
       <c r="A152" s="1" t="s">
         <v>76</v>
       </c>
@@ -10413,7 +10797,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" hidden="1">
       <c r="A153" s="1" t="s">
         <v>75</v>
       </c>
@@ -10424,7 +10808,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" hidden="1">
       <c r="A154" s="1" t="s">
         <v>74</v>
       </c>
@@ -10435,7 +10819,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" hidden="1">
       <c r="A155" s="1" t="s">
         <v>84</v>
       </c>
@@ -10446,7 +10830,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" hidden="1">
       <c r="A156" s="1" t="s">
         <v>87</v>
       </c>
@@ -10457,7 +10841,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" hidden="1">
       <c r="A157" s="1" t="s">
         <v>88</v>
       </c>
@@ -10468,7 +10852,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" hidden="1">
       <c r="A158" s="1" t="s">
         <v>83</v>
       </c>
@@ -10479,7 +10863,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" hidden="1">
       <c r="A159" s="1" t="s">
         <v>93</v>
       </c>
@@ -10490,7 +10874,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" hidden="1">
       <c r="A160" s="1" t="s">
         <v>91</v>
       </c>
@@ -10501,7 +10885,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" hidden="1">
       <c r="A161" s="1" t="s">
         <v>79</v>
       </c>
@@ -10512,7 +10896,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" hidden="1">
       <c r="A162" s="1" t="s">
         <v>78</v>
       </c>
@@ -10523,7 +10907,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" hidden="1">
       <c r="A163" s="1" t="s">
         <v>77</v>
       </c>
@@ -10534,7 +10918,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" hidden="1">
       <c r="A164" s="1" t="s">
         <v>81</v>
       </c>
@@ -10545,7 +10929,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" hidden="1">
       <c r="A165" s="1" t="s">
         <v>85</v>
       </c>
@@ -10556,7 +10940,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" hidden="1">
       <c r="A166" s="1" t="s">
         <v>86</v>
       </c>
@@ -10567,7 +10951,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" hidden="1">
       <c r="A167" s="1" t="s">
         <v>80</v>
       </c>
@@ -10578,7 +10962,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" hidden="1">
       <c r="A168" s="1" t="s">
         <v>92</v>
       </c>
@@ -10589,7 +10973,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" hidden="1">
       <c r="A169" s="1" t="s">
         <v>89</v>
       </c>
@@ -10600,7 +10984,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" hidden="1">
       <c r="A170" s="1" t="s">
         <v>73</v>
       </c>
@@ -10611,7 +10995,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" hidden="1">
       <c r="A171" s="1" t="s">
         <v>72</v>
       </c>
@@ -10622,7 +11006,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" hidden="1">
       <c r="A172" s="1" t="s">
         <v>71</v>
       </c>
@@ -10633,7 +11017,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" hidden="1">
       <c r="A173" s="1" t="s">
         <v>82</v>
       </c>
@@ -10644,7 +11028,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" hidden="1">
       <c r="A174" s="1" t="s">
         <v>45</v>
       </c>
@@ -10655,7 +11039,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" hidden="1">
       <c r="A175" s="1" t="s">
         <v>48</v>
       </c>
@@ -10666,7 +11050,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" hidden="1">
       <c r="A176" s="1" t="s">
         <v>29</v>
       </c>
@@ -10677,7 +11061,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" hidden="1">
       <c r="A177" s="1" t="s">
         <v>732</v>
       </c>
@@ -10688,7 +11072,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" hidden="1">
       <c r="A178" s="1" t="s">
         <v>90</v>
       </c>
@@ -10699,7 +11083,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" hidden="1">
       <c r="A179" s="1" t="s">
         <v>76</v>
       </c>
@@ -10710,7 +11094,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" hidden="1">
       <c r="A180" s="1" t="s">
         <v>75</v>
       </c>
@@ -10721,7 +11105,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" hidden="1">
       <c r="A181" s="1" t="s">
         <v>74</v>
       </c>
@@ -10732,7 +11116,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" hidden="1">
       <c r="A182" s="1" t="s">
         <v>84</v>
       </c>
@@ -10743,7 +11127,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" hidden="1">
       <c r="A183" s="1" t="s">
         <v>87</v>
       </c>
@@ -10754,7 +11138,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" hidden="1">
       <c r="A184" s="1" t="s">
         <v>88</v>
       </c>
@@ -10765,7 +11149,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" hidden="1">
       <c r="A185" s="1" t="s">
         <v>83</v>
       </c>
@@ -10776,7 +11160,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" hidden="1">
       <c r="A186" s="1" t="s">
         <v>93</v>
       </c>
@@ -10787,7 +11171,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" hidden="1">
       <c r="A187" s="1" t="s">
         <v>91</v>
       </c>
@@ -10798,7 +11182,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" hidden="1">
       <c r="A188" s="1" t="s">
         <v>79</v>
       </c>
@@ -10809,7 +11193,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" hidden="1">
       <c r="A189" s="1" t="s">
         <v>78</v>
       </c>
@@ -10820,7 +11204,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" hidden="1">
       <c r="A190" s="1" t="s">
         <v>77</v>
       </c>
@@ -10831,7 +11215,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" hidden="1">
       <c r="A191" s="1" t="s">
         <v>81</v>
       </c>
@@ -10842,7 +11226,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" hidden="1">
       <c r="A192" s="1" t="s">
         <v>85</v>
       </c>
@@ -10853,7 +11237,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" hidden="1">
       <c r="A193" s="1" t="s">
         <v>86</v>
       </c>
@@ -10864,7 +11248,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" hidden="1">
       <c r="A194" s="1" t="s">
         <v>80</v>
       </c>
@@ -10875,7 +11259,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" hidden="1">
       <c r="A195" s="1" t="s">
         <v>92</v>
       </c>
@@ -10886,7 +11270,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" hidden="1">
       <c r="A196" s="1" t="s">
         <v>89</v>
       </c>
@@ -10897,7 +11281,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" hidden="1">
       <c r="A197" s="1" t="s">
         <v>73</v>
       </c>
@@ -10908,7 +11292,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" hidden="1">
       <c r="A198" s="1" t="s">
         <v>72</v>
       </c>
@@ -10919,7 +11303,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" hidden="1">
       <c r="A199" s="1" t="s">
         <v>71</v>
       </c>
@@ -10930,7 +11314,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" hidden="1">
       <c r="A200" s="1" t="s">
         <v>82</v>
       </c>
@@ -10941,7 +11325,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" hidden="1">
       <c r="A201" s="1" t="s">
         <v>45</v>
       </c>
@@ -10952,7 +11336,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" hidden="1">
       <c r="A202" s="1" t="s">
         <v>48</v>
       </c>
@@ -10963,7 +11347,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" hidden="1">
       <c r="A203" s="1" t="s">
         <v>29</v>
       </c>
@@ -10974,7 +11358,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" hidden="1">
       <c r="A204" s="1" t="s">
         <v>732</v>
       </c>
@@ -10985,7 +11369,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" hidden="1">
       <c r="A205" s="1" t="s">
         <v>90</v>
       </c>
@@ -10996,7 +11380,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" hidden="1">
       <c r="A206" s="1" t="s">
         <v>76</v>
       </c>
@@ -11007,7 +11391,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" hidden="1">
       <c r="A207" s="1" t="s">
         <v>75</v>
       </c>
@@ -11018,7 +11402,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" hidden="1">
       <c r="A208" s="1" t="s">
         <v>74</v>
       </c>
@@ -11029,7 +11413,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" hidden="1">
       <c r="A209" s="1" t="s">
         <v>84</v>
       </c>
@@ -11040,7 +11424,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" hidden="1">
       <c r="A210" s="1" t="s">
         <v>87</v>
       </c>
@@ -11051,7 +11435,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" hidden="1">
       <c r="A211" s="1" t="s">
         <v>88</v>
       </c>
@@ -11062,7 +11446,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" hidden="1">
       <c r="A212" s="1" t="s">
         <v>83</v>
       </c>
@@ -11073,7 +11457,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" hidden="1">
       <c r="A213" s="1" t="s">
         <v>93</v>
       </c>
@@ -11084,7 +11468,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" hidden="1">
       <c r="A214" s="1" t="s">
         <v>91</v>
       </c>
@@ -11095,7 +11479,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" hidden="1">
       <c r="A215" s="1" t="s">
         <v>79</v>
       </c>
@@ -11106,7 +11490,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" hidden="1">
       <c r="A216" s="1" t="s">
         <v>78</v>
       </c>
@@ -11117,7 +11501,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" hidden="1">
       <c r="A217" s="1" t="s">
         <v>77</v>
       </c>
@@ -11128,7 +11512,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" hidden="1">
       <c r="A218" s="1" t="s">
         <v>81</v>
       </c>
@@ -11139,7 +11523,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" hidden="1">
       <c r="A219" s="1" t="s">
         <v>85</v>
       </c>
@@ -11150,7 +11534,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" hidden="1">
       <c r="A220" s="1" t="s">
         <v>86</v>
       </c>
@@ -11161,7 +11545,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" hidden="1">
       <c r="A221" s="1" t="s">
         <v>80</v>
       </c>
@@ -11172,7 +11556,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" hidden="1">
       <c r="A222" s="1" t="s">
         <v>92</v>
       </c>
@@ -11183,7 +11567,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" hidden="1">
       <c r="A223" s="1" t="s">
         <v>89</v>
       </c>
@@ -11194,7 +11578,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" hidden="1">
       <c r="A224" s="1" t="s">
         <v>73</v>
       </c>
@@ -11205,7 +11589,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" hidden="1">
       <c r="A225" s="1" t="s">
         <v>72</v>
       </c>
@@ -11216,7 +11600,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" hidden="1">
       <c r="A226" s="1" t="s">
         <v>71</v>
       </c>
@@ -11227,7 +11611,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" hidden="1">
       <c r="A227" s="1" t="s">
         <v>82</v>
       </c>
@@ -11238,7 +11622,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" hidden="1">
       <c r="A228" s="1" t="s">
         <v>45</v>
       </c>
@@ -11249,7 +11633,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" hidden="1">
       <c r="A229" s="1" t="s">
         <v>48</v>
       </c>
@@ -11260,7 +11644,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" hidden="1">
       <c r="A230" s="1" t="s">
         <v>29</v>
       </c>
@@ -11271,7 +11655,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" hidden="1">
       <c r="A231" s="1" t="s">
         <v>732</v>
       </c>
@@ -11282,7 +11666,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" hidden="1">
       <c r="A232" s="1" t="s">
         <v>90</v>
       </c>
@@ -11293,7 +11677,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" hidden="1">
       <c r="A233" s="1" t="s">
         <v>76</v>
       </c>
@@ -11304,7 +11688,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" hidden="1">
       <c r="A234" s="1" t="s">
         <v>75</v>
       </c>
@@ -11315,7 +11699,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" hidden="1">
       <c r="A235" s="1" t="s">
         <v>74</v>
       </c>
@@ -11326,7 +11710,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" hidden="1">
       <c r="A236" s="1" t="s">
         <v>84</v>
       </c>
@@ -11337,7 +11721,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" hidden="1">
       <c r="A237" s="1" t="s">
         <v>87</v>
       </c>
@@ -11348,7 +11732,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" hidden="1">
       <c r="A238" s="1" t="s">
         <v>88</v>
       </c>
@@ -11359,7 +11743,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" hidden="1">
       <c r="A239" s="1" t="s">
         <v>83</v>
       </c>
@@ -11370,7 +11754,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" hidden="1">
       <c r="A240" s="1" t="s">
         <v>93</v>
       </c>
@@ -11381,7 +11765,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" hidden="1">
       <c r="A241" s="1" t="s">
         <v>91</v>
       </c>
@@ -11392,7 +11776,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" hidden="1">
       <c r="A242" s="1" t="s">
         <v>79</v>
       </c>
@@ -11403,7 +11787,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" hidden="1">
       <c r="A243" s="1" t="s">
         <v>78</v>
       </c>
@@ -11414,7 +11798,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" hidden="1">
       <c r="A244" s="1" t="s">
         <v>77</v>
       </c>
@@ -11425,7 +11809,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" hidden="1">
       <c r="A245" s="1" t="s">
         <v>81</v>
       </c>
@@ -11436,7 +11820,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" hidden="1">
       <c r="A246" s="1" t="s">
         <v>85</v>
       </c>
@@ -11447,7 +11831,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" hidden="1">
       <c r="A247" s="1" t="s">
         <v>86</v>
       </c>
@@ -11458,7 +11842,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" hidden="1">
       <c r="A248" s="1" t="s">
         <v>80</v>
       </c>
@@ -11469,7 +11853,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" hidden="1">
       <c r="A249" s="1" t="s">
         <v>92</v>
       </c>
@@ -11480,7 +11864,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" hidden="1">
       <c r="A250" s="1" t="s">
         <v>89</v>
       </c>
@@ -11491,7 +11875,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" hidden="1">
       <c r="A251" s="1" t="s">
         <v>73</v>
       </c>
@@ -11502,7 +11886,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" hidden="1">
       <c r="A252" s="1" t="s">
         <v>72</v>
       </c>
@@ -11513,7 +11897,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" hidden="1">
       <c r="A253" s="1" t="s">
         <v>71</v>
       </c>
@@ -11524,7 +11908,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" hidden="1">
       <c r="A254" s="1" t="s">
         <v>82</v>
       </c>
@@ -11535,7 +11919,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" hidden="1">
       <c r="A255" s="1" t="s">
         <v>45</v>
       </c>
@@ -11546,7 +11930,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" hidden="1">
       <c r="A256" s="1" t="s">
         <v>48</v>
       </c>
@@ -11557,7 +11941,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" hidden="1">
       <c r="A257" s="1" t="s">
         <v>29</v>
       </c>
@@ -11568,7 +11952,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" hidden="1">
       <c r="A258" s="1" t="s">
         <v>732</v>
       </c>
@@ -11579,7 +11963,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" hidden="1">
       <c r="A259" s="1" t="s">
         <v>90</v>
       </c>
@@ -11590,7 +11974,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" hidden="1">
       <c r="A260" s="1" t="s">
         <v>76</v>
       </c>
@@ -11601,7 +11985,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" hidden="1">
       <c r="A261" s="1" t="s">
         <v>75</v>
       </c>
@@ -11612,7 +11996,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" hidden="1">
       <c r="A262" s="1" t="s">
         <v>74</v>
       </c>
@@ -11623,7 +12007,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" hidden="1">
       <c r="A263" s="1" t="s">
         <v>84</v>
       </c>
@@ -11634,7 +12018,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" hidden="1">
       <c r="A264" s="1" t="s">
         <v>87</v>
       </c>
@@ -11645,7 +12029,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" hidden="1">
       <c r="A265" s="1" t="s">
         <v>88</v>
       </c>
@@ -11656,7 +12040,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" hidden="1">
       <c r="A266" s="1" t="s">
         <v>83</v>
       </c>
@@ -11667,7 +12051,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" hidden="1">
       <c r="A267" s="1" t="s">
         <v>93</v>
       </c>
@@ -11678,7 +12062,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" hidden="1">
       <c r="A268" s="1" t="s">
         <v>91</v>
       </c>
@@ -11689,7 +12073,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" hidden="1">
       <c r="A269" s="1" t="s">
         <v>79</v>
       </c>
@@ -11700,7 +12084,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" hidden="1">
       <c r="A270" s="1" t="s">
         <v>78</v>
       </c>
@@ -11711,7 +12095,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" hidden="1">
       <c r="A271" s="1" t="s">
         <v>77</v>
       </c>
@@ -11722,7 +12106,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" hidden="1">
       <c r="A272" s="1">
         <v>111</v>
       </c>
@@ -11733,7 +12117,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" hidden="1">
       <c r="A273" s="1" t="s">
         <v>81</v>
       </c>
@@ -11744,7 +12128,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" hidden="1">
       <c r="A274" s="1" t="s">
         <v>85</v>
       </c>
@@ -11755,7 +12139,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" hidden="1">
       <c r="A275" s="1" t="s">
         <v>86</v>
       </c>
@@ -11766,7 +12150,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" hidden="1">
       <c r="A276" s="1" t="s">
         <v>80</v>
       </c>
@@ -11777,7 +12161,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" hidden="1">
       <c r="A277" s="1" t="s">
         <v>92</v>
       </c>
@@ -11788,7 +12172,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" hidden="1">
       <c r="A278" s="1" t="s">
         <v>89</v>
       </c>
@@ -11799,7 +12183,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" hidden="1">
       <c r="A279" s="1" t="s">
         <v>73</v>
       </c>
@@ -11810,7 +12194,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" hidden="1">
       <c r="A280" s="1" t="s">
         <v>72</v>
       </c>
@@ -11821,7 +12205,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" hidden="1">
       <c r="A281" s="1" t="s">
         <v>71</v>
       </c>
@@ -11832,7 +12216,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" hidden="1">
       <c r="A282" s="1" t="s">
         <v>82</v>
       </c>
@@ -11843,7 +12227,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" hidden="1">
       <c r="A283" s="1" t="s">
         <v>45</v>
       </c>
@@ -11854,7 +12238,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" hidden="1">
       <c r="A284" s="1" t="s">
         <v>48</v>
       </c>
@@ -11865,7 +12249,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" hidden="1">
       <c r="A285" s="1" t="s">
         <v>29</v>
       </c>
@@ -11876,7 +12260,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" hidden="1">
       <c r="A286" s="1" t="s">
         <v>732</v>
       </c>
@@ -11887,7 +12271,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" hidden="1">
       <c r="A287" s="1" t="s">
         <v>90</v>
       </c>
@@ -11898,7 +12282,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" hidden="1">
       <c r="A288" s="1" t="s">
         <v>76</v>
       </c>
@@ -11909,7 +12293,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" hidden="1">
       <c r="A289" s="1" t="s">
         <v>75</v>
       </c>
@@ -11920,7 +12304,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" hidden="1">
       <c r="A290" s="1" t="s">
         <v>74</v>
       </c>
@@ -11931,7 +12315,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" hidden="1">
       <c r="A291" s="1" t="s">
         <v>84</v>
       </c>
@@ -11942,7 +12326,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" hidden="1">
       <c r="A292" s="1" t="s">
         <v>87</v>
       </c>
@@ -11953,7 +12337,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" hidden="1">
       <c r="A293" s="1" t="s">
         <v>88</v>
       </c>
@@ -11964,7 +12348,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" hidden="1">
       <c r="A294" s="1" t="s">
         <v>83</v>
       </c>
@@ -11975,7 +12359,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" hidden="1">
       <c r="A295" s="1" t="s">
         <v>93</v>
       </c>
@@ -11986,7 +12370,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" hidden="1">
       <c r="A296" s="1" t="s">
         <v>91</v>
       </c>
@@ -11997,7 +12381,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" hidden="1">
       <c r="A297" s="1" t="s">
         <v>79</v>
       </c>
@@ -12008,7 +12392,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" hidden="1">
       <c r="A298" s="1" t="s">
         <v>78</v>
       </c>
@@ -12019,7 +12403,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" hidden="1">
       <c r="A299" s="1" t="s">
         <v>77</v>
       </c>
@@ -12030,7 +12414,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" hidden="1">
       <c r="A300" s="1" t="s">
         <v>81</v>
       </c>
@@ -12041,7 +12425,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" hidden="1">
       <c r="A301" s="1" t="s">
         <v>85</v>
       </c>
@@ -12052,7 +12436,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" hidden="1">
       <c r="A302" s="1" t="s">
         <v>86</v>
       </c>
@@ -12063,7 +12447,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" hidden="1">
       <c r="A303" s="1" t="s">
         <v>80</v>
       </c>
@@ -12074,7 +12458,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" hidden="1">
       <c r="A304" s="1" t="s">
         <v>92</v>
       </c>
@@ -12085,7 +12469,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" hidden="1">
       <c r="A305" s="1" t="s">
         <v>89</v>
       </c>
@@ -12096,7 +12480,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" hidden="1">
       <c r="A306" s="1" t="s">
         <v>73</v>
       </c>
@@ -12107,7 +12491,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" hidden="1">
       <c r="A307" s="1" t="s">
         <v>72</v>
       </c>
@@ -12118,7 +12502,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" hidden="1">
       <c r="A308" s="1" t="s">
         <v>71</v>
       </c>
@@ -12129,7 +12513,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" hidden="1">
       <c r="A309" s="1" t="s">
         <v>82</v>
       </c>
@@ -12140,7 +12524,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" hidden="1">
       <c r="A310" s="1" t="s">
         <v>45</v>
       </c>
@@ -12151,7 +12535,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" hidden="1">
       <c r="A311" s="1" t="s">
         <v>48</v>
       </c>
@@ -12162,7 +12546,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" hidden="1">
       <c r="A312" s="1" t="s">
         <v>29</v>
       </c>
@@ -12173,7 +12557,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" hidden="1">
       <c r="A313" s="1" t="s">
         <v>732</v>
       </c>
@@ -12184,7 +12568,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" hidden="1">
       <c r="A314" s="1" t="s">
         <v>90</v>
       </c>
@@ -12195,7 +12579,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" hidden="1">
       <c r="A315" s="1" t="s">
         <v>76</v>
       </c>
@@ -12206,7 +12590,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" hidden="1">
       <c r="A316" s="1" t="s">
         <v>75</v>
       </c>
@@ -12217,7 +12601,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" hidden="1">
       <c r="A317" s="1" t="s">
         <v>74</v>
       </c>
@@ -12228,7 +12612,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" hidden="1">
       <c r="A318" s="1" t="s">
         <v>84</v>
       </c>
@@ -12239,7 +12623,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" hidden="1">
       <c r="A319" s="1" t="s">
         <v>87</v>
       </c>
@@ -12250,7 +12634,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" hidden="1">
       <c r="A320" s="1" t="s">
         <v>88</v>
       </c>
@@ -12261,7 +12645,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" hidden="1">
       <c r="A321" s="1" t="s">
         <v>83</v>
       </c>
@@ -12272,7 +12656,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" hidden="1">
       <c r="A322" s="1" t="s">
         <v>93</v>
       </c>
@@ -12283,7 +12667,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" hidden="1">
       <c r="A323" s="1" t="s">
         <v>91</v>
       </c>
@@ -12294,7 +12678,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" hidden="1">
       <c r="A324" s="1" t="s">
         <v>79</v>
       </c>
@@ -12305,7 +12689,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" hidden="1">
       <c r="A325" s="1" t="s">
         <v>78</v>
       </c>
@@ -12316,7 +12700,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" hidden="1">
       <c r="A326" s="1" t="s">
         <v>77</v>
       </c>
@@ -12329,6 +12713,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C326" xr:uid="{A2024974-4AFB-6643-8C0F-33E22AABE4BC}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C326">
       <sortCondition ref="B2:B326"/>
     </sortState>
@@ -12339,7 +12728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328E707-4BF8-F742-A3AD-B631A5FF09F8}">
   <dimension ref="A1:J819"/>
   <sheetViews>
@@ -23893,96 +24282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2004</v>
-      </c>
-      <c r="F1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2006</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2005</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D16" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
-    <sortCondition ref="D2:D12"/>
-    <sortCondition ref="E2:E12"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB60BE-921B-5D4A-B03A-1A2C9FB4FA65}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -24065,7 +24365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D3CE84-AC9B-A147-8309-3606006F464C}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278C4A43-F0F4-1C4B-B140-C5580CAD491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BE13A8-8645-9E49-A244-371FB2111654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="2040" windowWidth="43700" windowHeight="31180" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="12640" yWindow="2040" windowWidth="43700" windowHeight="31180" activeTab="1" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$L$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">blindformula!$A$1:$J$819</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$D$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="2064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="2073">
   <si>
     <t>corner</t>
   </si>
@@ -6333,6 +6333,42 @@
   </si>
   <si>
     <t>ZY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4 L6 F7 D1 L9 F1 L3 U7 U2 B2 U3 B1 R3 U4 L2 U1 L1 B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U' L' U L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本1+U2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R U2 R'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3 U9 R1 F6 R4 F9 R7 D3 F1 U7 L3 U4 L2 U1 L1 B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本1+U2-左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本1+U'-左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3 U9 R1 U6 R2 U3 R3 B1 F1 U7 L3 F4 L6 F7 L9 D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L' U2 L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6744,8 +6780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0081B3E3-1F25-9045-840D-302599842815}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8904,10 +8940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8964,10 +9000,10 @@
         <v>1995</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2012</v>
+        <v>2038</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2039</v>
       </c>
       <c r="D3" t="s">
         <v>2010</v>
@@ -8976,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>2036</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8984,10 +9020,10 @@
         <v>1995</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2038</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2039</v>
+        <v>2066</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2067</v>
       </c>
       <c r="D4" t="s">
         <v>2010</v>
@@ -8996,14 +9032,73 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>2040</v>
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2071</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D16" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
-    <sortCondition ref="D2:D12"/>
-    <sortCondition ref="E2:E12"/>
+  <autoFilter ref="A1:D17" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
+    <sortCondition ref="E5:E7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4617BA-519B-C646-8C69-D174728A579E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867363C6-39EC-E842-A4E2-B7D5FE7A1B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="5120" windowWidth="43700" windowHeight="28180" activeTab="1" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$L$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">blindformula!$A$1:$J$819</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$E$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet4!$A$1:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9165" uniqueCount="3345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9188" uniqueCount="3350">
   <si>
     <t>corner</t>
   </si>
@@ -32331,10 +32331,6 @@
     <t>ABC DEF JKL XYZ AB CD EF QR</t>
   </si>
   <si>
-    <t>R U R'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L' U' L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32395,7 +32391,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相邻AAA</t>
+    <t>U R U' R'</t>
+  </si>
+  <si>
+    <t>同层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U' L' U L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF GHI JKL XYZ AB CD EF GH QR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46213,287 +46232,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3339</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3344</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>3326</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3343</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3340</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2001</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>3326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1994</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3337</v>
+        <v>2009</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2009</v>
+        <v>3336</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3337</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F2" t="s">
         <v>3333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3340</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>3341</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2" s="48" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="48" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1994</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3337</v>
+        <v>2010</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2010</v>
+        <v>3336</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3337</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F3" t="s">
         <v>3333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3340</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3341</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="J3" s="48" t="s">
         <v>3325</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1994</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3337</v>
+        <v>3343</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3321</v>
+        <v>3336</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3337</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3335</v>
-      </c>
-      <c r="F4" t="s">
         <v>3333</v>
       </c>
+      <c r="E4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3340</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>3342</v>
-      </c>
-      <c r="H4">
+        <v>3341</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4" s="48" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="48" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>1994</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3337</v>
+        <v>3348</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3323</v>
+        <v>3336</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3337</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3335</v>
-      </c>
-      <c r="F5" t="s">
         <v>3333</v>
       </c>
+      <c r="E5" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3340</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>3342</v>
-      </c>
-      <c r="H5">
+        <v>3341</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>3324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="48" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>1994</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3338</v>
+        <v>3328</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3328</v>
+        <v>3337</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F6" t="s">
         <v>3333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3340</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>3341</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>1994</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3338</v>
+        <v>2009</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3329</v>
+        <v>3336</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F7" t="s">
         <v>3333</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3340</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>3341</v>
       </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7" s="4"/>
+      <c r="J7" s="48" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>1994</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3339</v>
+        <v>3321</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3331</v>
+        <v>3336</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>3339</v>
-      </c>
-      <c r="E8" s="4" t="s">
         <v>3334</v>
       </c>
-      <c r="F8" t="s">
-        <v>3333</v>
+      <c r="E8" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3341</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>3341</v>
       </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>3330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" s="4"/>
+      <c r="J8" s="48" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>1994</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3337</v>
+        <v>3323</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E9" t="s">
         <v>3332</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>3344</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3333</v>
+      <c r="F9" s="4" t="s">
+        <v>3341</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>3341</v>
       </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
+      <c r="H9" s="4"/>
+      <c r="J9" s="48" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="J10" s="48" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F13" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I3">
-    <sortCondition ref="H3"/>
+  <autoFilter ref="A1:E15" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
+    <sortCondition ref="I6:I11"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867363C6-39EC-E842-A4E2-B7D5FE7A1B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44DC37A-094C-7442-83B7-B96D7E8599B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="5120" windowWidth="43700" windowHeight="28180" activeTab="1" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$L$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">blindformula!$A$1:$J$819</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet4!$A$1:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9188" uniqueCount="3350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9155" uniqueCount="3345">
   <si>
     <t>corner</t>
   </si>
@@ -32291,10 +32291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ABC DEF JKL XYZ AB CD EF QR </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y U' L' U L y'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32343,10 +32339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R' F R F'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顶同色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32391,9 +32383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U R U' R'</t>
-  </si>
-  <si>
     <t>同层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32407,14 +32396,6 @@
   </si>
   <si>
     <t>左手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U' L' U L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF GHI JKL XYZ AB CD EF GH QR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46232,17 +46213,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -46260,28 +46241,28 @@
         <v>697</v>
       </c>
       <c r="C1" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="D1" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>715</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="I1" t="s">
         <v>2001</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>714</v>
@@ -46295,28 +46276,28 @@
         <v>2009</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="E2" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -46327,28 +46308,28 @@
         <v>2010</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="E3" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -46356,31 +46337,29 @@
         <v>1994</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3343</v>
+        <v>3320</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="E4" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>3341</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>3346</v>
-      </c>
+        <v>3339</v>
+      </c>
+      <c r="H4" s="4"/>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>3349</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -46388,31 +46367,29 @@
         <v>1994</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3348</v>
+        <v>3322</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="E5" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>3341</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>3347</v>
-      </c>
+        <v>3339</v>
+      </c>
+      <c r="H5" s="4"/>
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="K5" s="48" t="s">
-        <v>3325</v>
+      <c r="J5" s="48" t="s">
+        <v>3323</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -46420,31 +46397,28 @@
         <v>1994</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="E6" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>3347</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
+        <v>3344</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -46452,137 +46426,32 @@
         <v>1994</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2009</v>
+        <v>3329</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3336</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="E7" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="48" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3321</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3332</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>3341</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>3341</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="J8" s="48" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3323</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3332</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>3341</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>3341</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="J9" s="48" t="s">
-        <v>3324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3330</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3338</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>3333</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3332</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>3340</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>3341</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="J10" s="48" t="s">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3331</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3336</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3333</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3332</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>3340</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>3341</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>3328</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E15" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
-    <sortCondition ref="I6:I11"/>
+  <autoFilter ref="A1:E11" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K7">
+    <sortCondition ref="I6:I7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44DC37A-094C-7442-83B7-B96D7E8599B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E68C01-816E-FD48-86A7-6800843AD3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="5120" windowWidth="43700" windowHeight="28180" activeTab="1" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">blindcode!$A$1:$L$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">blindformula!$A$1:$J$819</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cfop!$A$1:$E$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet4!$A$1:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9155" uniqueCount="3345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="3350">
   <si>
     <t>corner</t>
   </si>
@@ -32327,18 +32327,14 @@
     <t>ABC DEF JKL XYZ AB CD EF QR</t>
   </si>
   <si>
+    <t>R U R'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>L' U' L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ABC DEF GHI JKL XYZ AB CD EF GH QR </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U' R U R' U R U R'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顶同色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -32396,6 +32392,30 @@
   </si>
   <si>
     <t>左手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶异色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC DEF JLK XYZ AB CD EF QR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R U R' U R U R'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L' U' L U' L' U' L </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC DEF GHI JKL WMN AB CD EF GH ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC DEF GHI JKL XYZ AB CD EF GH QR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46213,10 +46233,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -46241,22 +46262,22 @@
         <v>697</v>
       </c>
       <c r="C1" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="D1" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>715</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3341</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3342</v>
       </c>
       <c r="I1" t="s">
         <v>2001</v>
@@ -46276,22 +46297,22 @@
         <v>2009</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="E2" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>3338</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>3339</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -46308,22 +46329,22 @@
         <v>2010</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="E3" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>3338</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>3339</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -46340,21 +46361,23 @@
         <v>3320</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="E4" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>3339</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>3338</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3342</v>
+      </c>
       <c r="I4">
         <v>3</v>
       </c>
@@ -46370,21 +46393,23 @@
         <v>3322</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="E5" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>3339</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>3338</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3343</v>
+      </c>
       <c r="I5">
         <v>4</v>
       </c>
@@ -46400,25 +46425,28 @@
         <v>3327</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3331</v>
-      </c>
-      <c r="E6" t="s">
         <v>3330</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>3344</v>
+      </c>
       <c r="F6" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>3338</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>3339</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>3344</v>
+        <v>3342</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>3324</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -46426,32 +46454,106 @@
         <v>1994</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>3331</v>
-      </c>
-      <c r="E7" t="s">
         <v>3330</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>3344</v>
+      </c>
       <c r="F7" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>3338</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>3339</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
       <c r="J7" s="48" t="s">
-        <v>3328</v>
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="I10" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K7">
-    <sortCondition ref="I6:I7"/>
+  <autoFilter ref="A1:E12" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K8">
+    <sortCondition ref="I9:I8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E68C01-816E-FD48-86A7-6800843AD3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E696D02-10B0-4C40-B1B4-6A43B258373C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="5120" windowWidth="43700" windowHeight="28180" activeTab="1" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="3350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9194" uniqueCount="3354">
   <si>
     <t>corner</t>
   </si>
@@ -32416,6 +32416,22 @@
   </si>
   <si>
     <t>ABC DEF GHI JKL XYZ AB CD EF GH QR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R U R' U2  R U' R'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC DEF GHI JKL XYZ AB CD GH QR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L' U' L U2  L' U L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC DEF GHI JKL WMN AB CD GH ST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46233,11 +46249,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -46546,8 +46562,64 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="I10" t="s">
-        <v>734</v>
+      <c r="A10" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>3353</v>
       </c>
     </row>
   </sheetData>

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0227C0-5A83-954D-B94E-07477B093F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F860BA-208F-624D-AC05-5819F2F6F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="4460" windowWidth="43700" windowHeight="28180" activeTab="4" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
+    <workbookView xWindow="11740" yWindow="5120" windowWidth="43700" windowHeight="28180" activeTab="4" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
   <sheets>
     <sheet name="blindcode" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9200" uniqueCount="3356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9204" uniqueCount="3358">
   <si>
     <t>corner</t>
   </si>
@@ -32441,13 +32441,21 @@
     <t>三阶魔方高级玩法教程－－F2L公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.cube.academy/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔方解法网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -32967,6 +32975,9 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -33029,9 +33040,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -35634,10 +35642,10 @@
       <c r="E1" s="5" t="s">
         <v>3278</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -35656,7 +35664,7 @@
       <c r="D2" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>3279</v>
       </c>
       <c r="F2" s="7"/>
@@ -35679,7 +35687,7 @@
       <c r="D3" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="10"/>
@@ -35700,7 +35708,7 @@
       <c r="D4" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="10"/>
@@ -35721,7 +35729,7 @@
       <c r="D5" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="10"/>
@@ -35742,7 +35750,7 @@
       <c r="D6" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="10"/>
@@ -35763,7 +35771,7 @@
       <c r="D7" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="10"/>
@@ -35784,7 +35792,7 @@
       <c r="D8" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="10"/>
@@ -35805,7 +35813,7 @@
       <c r="D9" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="10"/>
@@ -35826,7 +35834,7 @@
       <c r="D10" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="10"/>
@@ -35847,7 +35855,7 @@
       <c r="D11" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
@@ -35868,7 +35876,7 @@
       <c r="D12" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="10"/>
@@ -35889,7 +35897,7 @@
       <c r="D13" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="10"/>
@@ -35902,7 +35910,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="10"/>
@@ -35923,7 +35931,7 @@
       <c r="D15" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="10"/>
@@ -35944,7 +35952,7 @@
       <c r="D16" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="10"/>
@@ -35965,7 +35973,7 @@
       <c r="D17" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="10"/>
@@ -35986,7 +35994,7 @@
       <c r="D18" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="10"/>
@@ -36007,7 +36015,7 @@
       <c r="D19" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="10"/>
@@ -36028,7 +36036,7 @@
       <c r="D20" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="10"/>
@@ -36049,7 +36057,7 @@
       <c r="D21" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="10"/>
@@ -36070,7 +36078,7 @@
       <c r="D22" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="10"/>
@@ -36091,7 +36099,7 @@
       <c r="D23" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="10"/>
@@ -36112,7 +36120,7 @@
       <c r="D24" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="10"/>
@@ -36133,7 +36141,7 @@
       <c r="D25" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="10"/>
@@ -36154,7 +36162,7 @@
       <c r="D26" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="10"/>
@@ -36175,7 +36183,7 @@
       <c r="D27" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="10"/>
@@ -36196,7 +36204,7 @@
       <c r="D28" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="10"/>
@@ -36217,7 +36225,7 @@
       <c r="D29" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="10"/>
@@ -36238,7 +36246,7 @@
       <c r="D30" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="10"/>
@@ -36259,7 +36267,7 @@
       <c r="D31" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="52"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="10"/>
@@ -36280,7 +36288,7 @@
       <c r="D32" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="10"/>
@@ -36301,7 +36309,7 @@
       <c r="D33" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="10"/>
@@ -36322,7 +36330,7 @@
       <c r="D34" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="10"/>
@@ -36343,7 +36351,7 @@
       <c r="D35" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="10"/>
@@ -36364,7 +36372,7 @@
       <c r="D36" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="10"/>
@@ -36385,7 +36393,7 @@
       <c r="D37" s="18" t="s">
         <v>2398</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="10"/>
@@ -36406,7 +36414,7 @@
       <c r="D38" s="18" t="s">
         <v>2398</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="52"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="10"/>
@@ -36427,7 +36435,7 @@
       <c r="D39" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="10"/>
@@ -36448,7 +36456,7 @@
       <c r="D40" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="10"/>
@@ -36469,7 +36477,7 @@
       <c r="D41" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="7" t="s">
         <v>2636</v>
       </c>
@@ -36494,7 +36502,7 @@
       <c r="D42" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="52"/>
       <c r="F42" s="7" t="s">
         <v>2946</v>
       </c>
@@ -36511,7 +36519,7 @@
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="51"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="10"/>
@@ -36532,7 +36540,7 @@
       <c r="D44" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="10"/>
@@ -36553,7 +36561,7 @@
       <c r="D45" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="10"/>
@@ -36574,7 +36582,7 @@
       <c r="D46" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="10"/>
@@ -36595,7 +36603,7 @@
       <c r="D47" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="10"/>
@@ -36616,7 +36624,7 @@
       <c r="D48" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="10"/>
@@ -36637,7 +36645,7 @@
       <c r="D49" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="10"/>
@@ -36658,7 +36666,7 @@
       <c r="D50" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="10"/>
@@ -36679,7 +36687,7 @@
       <c r="D51" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="10"/>
@@ -36700,7 +36708,7 @@
       <c r="D52" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="10"/>
@@ -36721,7 +36729,7 @@
       <c r="D53" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E53" s="51"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="10"/>
@@ -36742,7 +36750,7 @@
       <c r="D54" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="10"/>
@@ -36763,7 +36771,7 @@
       <c r="D55" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="10"/>
@@ -36784,7 +36792,7 @@
       <c r="D56" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E56" s="51"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="10"/>
@@ -36805,7 +36813,7 @@
       <c r="D57" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="10"/>
@@ -36826,7 +36834,7 @@
       <c r="D58" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E58" s="51"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="10"/>
@@ -36847,7 +36855,7 @@
       <c r="D59" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E59" s="51"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="10"/>
@@ -36868,7 +36876,7 @@
       <c r="D60" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E60" s="51"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="10"/>
@@ -36889,7 +36897,7 @@
       <c r="D61" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E61" s="51"/>
+      <c r="E61" s="52"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="10"/>
@@ -36910,7 +36918,7 @@
       <c r="D62" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="52"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="10"/>
@@ -36931,7 +36939,7 @@
       <c r="D63" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E63" s="51"/>
+      <c r="E63" s="52"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="10"/>
@@ -36952,7 +36960,7 @@
       <c r="D64" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E64" s="51"/>
+      <c r="E64" s="52"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="10"/>
@@ -36973,7 +36981,7 @@
       <c r="D65" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="52"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="10"/>
@@ -36994,7 +37002,7 @@
       <c r="D66" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="52"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="10"/>
@@ -37015,7 +37023,7 @@
       <c r="D67" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="10"/>
@@ -37028,7 +37036,7 @@
       <c r="B68" s="8"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="51"/>
+      <c r="E68" s="52"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="10"/>
@@ -37049,7 +37057,7 @@
       <c r="D69" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="52"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="10"/>
@@ -37070,7 +37078,7 @@
       <c r="D70" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="52"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="10"/>
@@ -37091,7 +37099,7 @@
       <c r="D71" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="10"/>
@@ -37112,7 +37120,7 @@
       <c r="D72" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="52"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="10"/>
@@ -37133,7 +37141,7 @@
       <c r="D73" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E73" s="51"/>
+      <c r="E73" s="52"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="10"/>
@@ -37154,7 +37162,7 @@
       <c r="D74" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="52"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="10"/>
@@ -37175,7 +37183,7 @@
       <c r="D75" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E75" s="51"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="10"/>
@@ -37196,7 +37204,7 @@
       <c r="D76" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E76" s="51"/>
+      <c r="E76" s="52"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="10"/>
@@ -37248,12 +37256,12 @@
       <c r="E1" s="27" t="s">
         <v>3278</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
@@ -37270,7 +37278,7 @@
       <c r="D2" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>3280</v>
       </c>
       <c r="F2" s="7"/>
@@ -37293,7 +37301,7 @@
       <c r="D3" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -37314,7 +37322,7 @@
       <c r="D4" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -37335,7 +37343,7 @@
       <c r="D5" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -37356,7 +37364,7 @@
       <c r="D6" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -37377,7 +37385,7 @@
       <c r="D7" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -37398,7 +37406,7 @@
       <c r="D8" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -37419,7 +37427,7 @@
       <c r="D9" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -37440,7 +37448,7 @@
       <c r="D10" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="7" t="s">
         <v>1928</v>
       </c>
@@ -37465,7 +37473,7 @@
       <c r="D11" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="7" t="s">
         <v>3017</v>
       </c>
@@ -37490,7 +37498,7 @@
       <c r="D12" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -37511,7 +37519,7 @@
       <c r="D13" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -37532,7 +37540,7 @@
       <c r="D14" s="18" t="s">
         <v>2398</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -37553,7 +37561,7 @@
       <c r="D15" s="18" t="s">
         <v>2398</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -37574,7 +37582,7 @@
       <c r="D16" s="18" t="s">
         <v>2398</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -37595,7 +37603,7 @@
       <c r="D17" s="18" t="s">
         <v>2398</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -37608,7 +37616,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -37629,7 +37637,7 @@
       <c r="D19" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="7" t="s">
         <v>2209</v>
       </c>
@@ -37654,7 +37662,7 @@
       <c r="D20" s="28" t="s">
         <v>2078</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="7" t="s">
         <v>2471</v>
       </c>
@@ -37712,10 +37720,10 @@
       <c r="E1" s="5" t="s">
         <v>3278</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -37734,7 +37742,7 @@
       <c r="D2" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="53" t="s">
         <v>3281</v>
       </c>
       <c r="F2" s="7"/>
@@ -37757,7 +37765,7 @@
       <c r="D3" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -37778,7 +37786,7 @@
       <c r="D4" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -37799,7 +37807,7 @@
       <c r="D5" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -37820,7 +37828,7 @@
       <c r="D6" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="7" t="s">
         <v>1406</v>
       </c>
@@ -37845,7 +37853,7 @@
       <c r="D7" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="7" t="s">
         <v>2370</v>
       </c>
@@ -37870,7 +37878,7 @@
       <c r="D8" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -37891,7 +37899,7 @@
       <c r="D9" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -37912,7 +37920,7 @@
       <c r="D10" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -37933,7 +37941,7 @@
       <c r="D11" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -37954,7 +37962,7 @@
       <c r="D12" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -37975,7 +37983,7 @@
       <c r="D13" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -37996,7 +38004,7 @@
       <c r="D14" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="55" t="s">
         <v>3282</v>
       </c>
       <c r="F14" s="7"/>
@@ -38019,7 +38027,7 @@
       <c r="D15" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -38040,7 +38048,7 @@
       <c r="D16" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E16" s="54"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -38061,7 +38069,7 @@
       <c r="D17" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -38074,7 +38082,7 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -38095,7 +38103,7 @@
       <c r="D19" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -38116,7 +38124,7 @@
       <c r="D20" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -38137,7 +38145,7 @@
       <c r="D21" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -38158,7 +38166,7 @@
       <c r="D22" s="28" t="s">
         <v>2078</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -38179,7 +38187,7 @@
       <c r="D23" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="56" t="s">
         <v>3283</v>
       </c>
       <c r="F23" s="7"/>
@@ -38202,7 +38210,7 @@
       <c r="D24" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E24" s="55"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -38223,7 +38231,7 @@
       <c r="D25" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="E25" s="56"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -38244,7 +38252,7 @@
       <c r="D26" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -38265,7 +38273,7 @@
       <c r="D27" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E27" s="55"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -38286,7 +38294,7 @@
       <c r="D28" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E28" s="55"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -38307,7 +38315,7 @@
       <c r="D29" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E29" s="55"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -38328,7 +38336,7 @@
       <c r="D30" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E30" s="55"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -38341,7 +38349,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="55"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -38362,7 +38370,7 @@
       <c r="D32" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E32" s="55"/>
+      <c r="E32" s="56"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -38383,7 +38391,7 @@
       <c r="D33" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E33" s="55"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -38404,7 +38412,7 @@
       <c r="D34" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E34" s="55"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -38425,7 +38433,7 @@
       <c r="D35" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E35" s="55"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -38446,7 +38454,7 @@
       <c r="D36" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E36" s="55"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -38467,7 +38475,7 @@
       <c r="D37" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E37" s="55"/>
+      <c r="E37" s="56"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -38488,7 +38496,7 @@
       <c r="D38" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E38" s="55"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -38509,7 +38517,7 @@
       <c r="D39" s="28" t="s">
         <v>2078</v>
       </c>
-      <c r="E39" s="55"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -38530,7 +38538,7 @@
       <c r="D40" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="57" t="s">
         <v>3284</v>
       </c>
       <c r="F40" s="7"/>
@@ -38553,7 +38561,7 @@
       <c r="D41" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E41" s="56"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -38574,7 +38582,7 @@
       <c r="D42" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E42" s="56"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="7" t="s">
         <v>2858</v>
       </c>
@@ -38599,7 +38607,7 @@
       <c r="D43" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E43" s="56"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="7" t="s">
         <v>3011</v>
       </c>
@@ -38624,7 +38632,7 @@
       <c r="D44" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E44" s="56"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="7" t="s">
         <v>2143</v>
       </c>
@@ -38653,7 +38661,7 @@
       <c r="D45" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E45" s="56"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="7" t="s">
         <v>2465</v>
       </c>
@@ -38682,7 +38690,7 @@
       <c r="D46" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E46" s="56"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="7" t="s">
         <v>2157</v>
       </c>
@@ -38707,7 +38715,7 @@
       <c r="D47" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E47" s="56"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="7" t="s">
         <v>2720</v>
       </c>
@@ -38732,7 +38740,7 @@
       <c r="D48" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E48" s="56"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="7" t="s">
         <v>1374</v>
       </c>
@@ -38757,7 +38765,7 @@
       <c r="D49" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E49" s="56"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="7" t="s">
         <v>1421</v>
       </c>
@@ -38782,7 +38790,7 @@
       <c r="D50" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="7" t="s">
         <v>2632</v>
       </c>
@@ -38807,7 +38815,7 @@
       <c r="D51" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E51" s="56"/>
+      <c r="E51" s="57"/>
       <c r="F51" s="7" t="s">
         <v>2894</v>
       </c>
@@ -38832,7 +38840,7 @@
       <c r="D52" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E52" s="56"/>
+      <c r="E52" s="57"/>
       <c r="F52" s="8" t="s">
         <v>1515</v>
       </c>
@@ -38861,7 +38869,7 @@
       <c r="D53" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E53" s="56"/>
+      <c r="E53" s="57"/>
       <c r="F53" s="8" t="s">
         <v>1400</v>
       </c>
@@ -38890,7 +38898,7 @@
       <c r="D54" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -38911,7 +38919,7 @@
       <c r="D55" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E55" s="56"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -38924,7 +38932,7 @@
       <c r="B56" s="8"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="56"/>
+      <c r="E56" s="57"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -38945,7 +38953,7 @@
       <c r="D57" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E57" s="56"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -38966,7 +38974,7 @@
       <c r="D58" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E58" s="56"/>
+      <c r="E58" s="57"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -38987,7 +38995,7 @@
       <c r="D59" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E59" s="56"/>
+      <c r="E59" s="57"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -39008,7 +39016,7 @@
       <c r="D60" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E60" s="56"/>
+      <c r="E60" s="57"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -39029,7 +39037,7 @@
       <c r="D61" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E61" s="56"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="7" t="s">
         <v>2624</v>
       </c>
@@ -39054,7 +39062,7 @@
       <c r="D62" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E62" s="56"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="7" t="s">
         <v>2742</v>
       </c>
@@ -39079,7 +39087,7 @@
       <c r="D63" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E63" s="56"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -39100,7 +39108,7 @@
       <c r="D64" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E64" s="56"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -39121,7 +39129,7 @@
       <c r="D65" s="6" t="s">
         <v>2078</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E65" s="52" t="s">
         <v>3285</v>
       </c>
       <c r="F65" s="7"/>
@@ -39144,7 +39152,7 @@
       <c r="D66" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="52"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -39165,7 +39173,7 @@
       <c r="D67" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -39186,7 +39194,7 @@
       <c r="D68" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="52"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -39207,7 +39215,7 @@
       <c r="D69" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="52" t="s">
         <v>3286</v>
       </c>
       <c r="F69" s="7"/>
@@ -39230,7 +39238,7 @@
       <c r="D70" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="52"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -39251,7 +39259,7 @@
       <c r="D71" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="52"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -39272,7 +39280,7 @@
       <c r="D72" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="52"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -39293,7 +39301,7 @@
       <c r="D73" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E73" s="51"/>
+      <c r="E73" s="52"/>
       <c r="F73" s="7" t="s">
         <v>2692</v>
       </c>
@@ -39318,7 +39326,7 @@
       <c r="D74" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="52"/>
       <c r="F74" s="7" t="s">
         <v>2793</v>
       </c>
@@ -39343,7 +39351,7 @@
       <c r="D75" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E75" s="51"/>
+      <c r="E75" s="52"/>
       <c r="F75" s="7" t="s">
         <v>2305</v>
       </c>
@@ -39368,7 +39376,7 @@
       <c r="D76" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E76" s="51"/>
+      <c r="E76" s="52"/>
       <c r="F76" s="7" t="s">
         <v>2417</v>
       </c>
@@ -39393,7 +39401,7 @@
       <c r="D77" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E77" s="51"/>
+      <c r="E77" s="52"/>
       <c r="F77" s="7" t="s">
         <v>2425</v>
       </c>
@@ -39418,7 +39426,7 @@
       <c r="D78" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E78" s="51"/>
+      <c r="E78" s="52"/>
       <c r="F78" s="7" t="s">
         <v>2552</v>
       </c>
@@ -39443,7 +39451,7 @@
       <c r="D79" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E79" s="51"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="7" t="s">
         <v>2562</v>
       </c>
@@ -39468,7 +39476,7 @@
       <c r="D80" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E80" s="51"/>
+      <c r="E80" s="52"/>
       <c r="F80" s="7" t="s">
         <v>2687</v>
       </c>
@@ -39485,7 +39493,7 @@
       <c r="B81" s="32"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="51"/>
+      <c r="E81" s="52"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -39506,7 +39514,7 @@
       <c r="D82" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E82" s="51"/>
+      <c r="E82" s="52"/>
       <c r="F82" s="7" t="s">
         <v>2174</v>
       </c>
@@ -39531,7 +39539,7 @@
       <c r="D83" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E83" s="51"/>
+      <c r="E83" s="52"/>
       <c r="F83" s="7" t="s">
         <v>2976</v>
       </c>
@@ -39556,7 +39564,7 @@
       <c r="D84" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E84" s="51"/>
+      <c r="E84" s="52"/>
       <c r="F84" s="7" t="s">
         <v>2382</v>
       </c>
@@ -39581,7 +39589,7 @@
       <c r="D85" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E85" s="51"/>
+      <c r="E85" s="52"/>
       <c r="F85" s="7" t="s">
         <v>2884</v>
       </c>
@@ -39643,12 +39651,12 @@
       <c r="E1" s="5" t="s">
         <v>3287</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
@@ -39665,7 +39673,7 @@
       <c r="D2" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>3288</v>
       </c>
       <c r="F2" s="7"/>
@@ -39688,7 +39696,7 @@
       <c r="D3" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -39709,7 +39717,7 @@
       <c r="D4" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -39730,7 +39738,7 @@
       <c r="D5" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -39751,7 +39759,7 @@
       <c r="D6" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="7" t="s">
         <v>2253</v>
       </c>
@@ -39776,7 +39784,7 @@
       <c r="D7" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="7" t="s">
         <v>2301</v>
       </c>
@@ -39801,7 +39809,7 @@
       <c r="D8" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -39822,7 +39830,7 @@
       <c r="D9" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -39843,7 +39851,7 @@
       <c r="D10" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -39864,7 +39872,7 @@
       <c r="D11" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -39885,7 +39893,7 @@
       <c r="D12" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -39906,7 +39914,7 @@
       <c r="D13" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -39919,7 +39927,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -39940,7 +39948,7 @@
       <c r="D15" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -39961,7 +39969,7 @@
       <c r="D16" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -39982,7 +39990,7 @@
       <c r="D17" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -40003,7 +40011,7 @@
       <c r="D18" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -40024,7 +40032,7 @@
       <c r="D19" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -40045,7 +40053,7 @@
       <c r="D20" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -40066,7 +40074,7 @@
       <c r="D21" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="7" t="s">
         <v>2508</v>
       </c>
@@ -40091,7 +40099,7 @@
       <c r="D22" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="7" t="s">
         <v>2990</v>
       </c>
@@ -40116,7 +40124,7 @@
       <c r="D23" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="7" t="s">
         <v>2517</v>
       </c>
@@ -40141,7 +40149,7 @@
       <c r="D24" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="7" t="s">
         <v>3100</v>
       </c>
@@ -40166,7 +40174,7 @@
       <c r="D25" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -40187,7 +40195,7 @@
       <c r="D26" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -40200,7 +40208,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -40221,7 +40229,7 @@
       <c r="D28" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -40242,7 +40250,7 @@
       <c r="D29" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -40263,7 +40271,7 @@
       <c r="D30" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -40284,7 +40292,7 @@
       <c r="D31" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="52"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -40305,7 +40313,7 @@
       <c r="D32" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="7" t="s">
         <v>2754</v>
       </c>
@@ -40330,7 +40338,7 @@
       <c r="D33" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="7" t="s">
         <v>3005</v>
       </c>
@@ -40355,7 +40363,7 @@
       <c r="D34" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -40376,7 +40384,7 @@
       <c r="D35" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -40389,7 +40397,7 @@
       <c r="B36" s="8"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="51"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -40410,7 +40418,7 @@
       <c r="D37" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="7" t="s">
         <v>2319</v>
       </c>
@@ -40435,7 +40443,7 @@
       <c r="D38" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="52"/>
       <c r="F38" s="7" t="s">
         <v>2676</v>
       </c>
@@ -40460,7 +40468,7 @@
       <c r="D39" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="7" t="s">
         <v>2100</v>
       </c>
@@ -40489,7 +40497,7 @@
       <c r="D40" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="7" t="s">
         <v>2665</v>
       </c>
@@ -40518,7 +40526,7 @@
       <c r="D41" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="52" t="s">
         <v>3289</v>
       </c>
       <c r="F41" s="7"/>
@@ -40541,7 +40549,7 @@
       <c r="D42" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="52"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -40562,7 +40570,7 @@
       <c r="D43" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -40583,7 +40591,7 @@
       <c r="D44" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -40604,7 +40612,7 @@
       <c r="D45" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -40625,7 +40633,7 @@
       <c r="D46" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -40646,7 +40654,7 @@
       <c r="D47" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -40667,7 +40675,7 @@
       <c r="D48" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -40688,7 +40696,7 @@
       <c r="D49" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -40709,7 +40717,7 @@
       <c r="D50" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -40730,7 +40738,7 @@
       <c r="D51" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="7" t="s">
         <v>2129</v>
       </c>
@@ -40755,7 +40763,7 @@
       <c r="D52" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="7" t="s">
         <v>2249</v>
       </c>
@@ -40780,7 +40788,7 @@
       <c r="D53" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="52" t="s">
         <v>3290</v>
       </c>
       <c r="F53" s="7" t="s">
@@ -40807,7 +40815,7 @@
       <c r="D54" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="7" t="s">
         <v>1966</v>
       </c>
@@ -40832,7 +40840,7 @@
       <c r="D55" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="52"/>
       <c r="F55" s="7" t="s">
         <v>2529</v>
       </c>
@@ -40857,7 +40865,7 @@
       <c r="D56" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E56" s="51"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="7" t="s">
         <v>3243</v>
       </c>
@@ -40882,7 +40890,7 @@
       <c r="D57" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="7" t="s">
         <v>2512</v>
       </c>
@@ -40911,7 +40919,7 @@
       <c r="D58" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E58" s="51"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="7" t="s">
         <v>3049</v>
       </c>
@@ -40940,7 +40948,7 @@
       <c r="D59" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E59" s="51"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="7" t="s">
         <v>2521</v>
       </c>
@@ -40969,7 +40977,7 @@
       <c r="D60" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E60" s="51"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="7" t="s">
         <v>3148</v>
       </c>
@@ -40990,7 +40998,7 @@
       <c r="B61" s="8"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="51"/>
+      <c r="E61" s="52"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -41011,7 +41019,7 @@
       <c r="D62" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="52"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -41032,7 +41040,7 @@
       <c r="D63" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E63" s="51"/>
+      <c r="E63" s="52"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -41053,7 +41061,7 @@
       <c r="D64" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E64" s="51"/>
+      <c r="E64" s="52"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -41074,7 +41082,7 @@
       <c r="D65" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="52"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -41095,7 +41103,7 @@
       <c r="D66" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="52"/>
       <c r="F66" s="7" t="s">
         <v>2706</v>
       </c>
@@ -41120,7 +41128,7 @@
       <c r="D67" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="7" t="s">
         <v>3059</v>
       </c>
@@ -41145,7 +41153,7 @@
       <c r="D68" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="52"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -41166,7 +41174,7 @@
       <c r="D69" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="52"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -41224,14 +41232,14 @@
       <c r="E1" s="5" t="s">
         <v>3278</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="7" t="s">
@@ -41246,7 +41254,7 @@
       <c r="D2" s="7" t="s">
         <v>2444</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="58" t="s">
         <v>3291</v>
       </c>
       <c r="F2" s="7"/>
@@ -41269,7 +41277,7 @@
       <c r="D3" s="7" t="s">
         <v>2444</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -41290,7 +41298,7 @@
       <c r="D4" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="7" t="s">
         <v>2438</v>
       </c>
@@ -41315,7 +41323,7 @@
       <c r="D5" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="7" t="s">
         <v>2837</v>
       </c>
@@ -41340,7 +41348,7 @@
       <c r="D6" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -41361,7 +41369,7 @@
       <c r="D7" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -41382,7 +41390,7 @@
       <c r="D8" s="7" t="s">
         <v>2444</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -41403,7 +41411,7 @@
       <c r="D9" s="7" t="s">
         <v>2444</v>
       </c>
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -41424,7 +41432,7 @@
       <c r="D10" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="7" t="s">
         <v>2355</v>
       </c>
@@ -41449,7 +41457,7 @@
       <c r="D11" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="7" t="s">
         <v>2421</v>
       </c>
@@ -41474,7 +41482,7 @@
       <c r="D12" s="18" t="s">
         <v>2449</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="7" t="s">
         <v>2456</v>
       </c>
@@ -41499,7 +41507,7 @@
       <c r="D13" s="18" t="s">
         <v>2449</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="7" t="s">
         <v>3145</v>
       </c>
@@ -41524,7 +41532,7 @@
       <c r="D14" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E14" s="58"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="7" t="s">
         <v>2429</v>
       </c>
@@ -41549,7 +41557,7 @@
       <c r="D15" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="7" t="s">
         <v>2615</v>
       </c>
@@ -41574,7 +41582,7 @@
       <c r="D16" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E16" s="58"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="7" t="s">
         <v>2565</v>
       </c>
@@ -41603,7 +41611,7 @@
       <c r="D17" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="7" t="s">
         <v>2736</v>
       </c>
@@ -41632,7 +41640,7 @@
       <c r="D18" s="18" t="s">
         <v>2449</v>
       </c>
-      <c r="E18" s="58"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="7" t="s">
         <v>2450</v>
       </c>
@@ -41657,7 +41665,7 @@
       <c r="D19" s="18" t="s">
         <v>2449</v>
       </c>
-      <c r="E19" s="58"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="7" t="s">
         <v>3045</v>
       </c>
@@ -41682,7 +41690,7 @@
       <c r="D20" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E20" s="58"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="7" t="s">
         <v>2139</v>
       </c>
@@ -41707,7 +41715,7 @@
       <c r="D21" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E21" s="58"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="7" t="s">
         <v>2409</v>
       </c>
@@ -41724,7 +41732,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="58"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -41745,7 +41753,7 @@
       <c r="D23" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -41766,7 +41774,7 @@
       <c r="D24" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E24" s="58"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -41787,7 +41795,7 @@
       <c r="D25" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="7" t="s">
         <v>1830</v>
       </c>
@@ -41820,7 +41828,7 @@
       <c r="D26" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E26" s="58"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="7" t="s">
         <v>505</v>
       </c>
@@ -41853,7 +41861,7 @@
       <c r="D27" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="60" t="s">
         <v>3292</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -41880,7 +41888,7 @@
       <c r="D28" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E28" s="59"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="7" t="s">
         <v>2833</v>
       </c>
@@ -41905,7 +41913,7 @@
       <c r="D29" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E29" s="59"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -41926,7 +41934,7 @@
       <c r="D30" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E30" s="59"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -41947,7 +41955,7 @@
       <c r="D31" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E31" s="59"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -41968,7 +41976,7 @@
       <c r="D32" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E32" s="59"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -41989,7 +41997,7 @@
       <c r="D33" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E33" s="59"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -42010,7 +42018,7 @@
       <c r="D34" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E34" s="59"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -42031,7 +42039,7 @@
       <c r="D35" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E35" s="59"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -42052,7 +42060,7 @@
       <c r="D36" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E36" s="59"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -42073,7 +42081,7 @@
       <c r="D37" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E37" s="59"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -42094,7 +42102,7 @@
       <c r="D38" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E38" s="59"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -42115,7 +42123,7 @@
       <c r="D39" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E39" s="59"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="7" t="s">
         <v>2581</v>
       </c>
@@ -42144,7 +42152,7 @@
       <c r="D40" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E40" s="59"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="7" t="s">
         <v>2994</v>
       </c>
@@ -42173,7 +42181,7 @@
       <c r="D41" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E41" s="59"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -42194,7 +42202,7 @@
       <c r="D42" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E42" s="59"/>
+      <c r="E42" s="60"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -42215,7 +42223,7 @@
       <c r="D43" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E43" s="59"/>
+      <c r="E43" s="60"/>
       <c r="F43" s="7" t="s">
         <v>2640</v>
       </c>
@@ -42240,7 +42248,7 @@
       <c r="D44" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E44" s="59"/>
+      <c r="E44" s="60"/>
       <c r="F44" s="7" t="s">
         <v>2999</v>
       </c>
@@ -42265,7 +42273,7 @@
       <c r="D45" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E45" s="59"/>
+      <c r="E45" s="60"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -42286,7 +42294,7 @@
       <c r="D46" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E46" s="59"/>
+      <c r="E46" s="60"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -42307,7 +42315,7 @@
       <c r="D47" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E47" s="59"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -42328,7 +42336,7 @@
       <c r="D48" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E48" s="59"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -42349,7 +42357,7 @@
       <c r="D49" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E49" s="59"/>
+      <c r="E49" s="60"/>
       <c r="F49" s="7" t="s">
         <v>2151</v>
       </c>
@@ -42374,7 +42382,7 @@
       <c r="D50" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E50" s="59"/>
+      <c r="E50" s="60"/>
       <c r="F50" s="7" t="s">
         <v>2601</v>
       </c>
@@ -42399,7 +42407,7 @@
       <c r="D51" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E51" s="59"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -42420,7 +42428,7 @@
       <c r="D52" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E52" s="59"/>
+      <c r="E52" s="60"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -42441,7 +42449,7 @@
       <c r="D53" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E53" s="59"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -42462,7 +42470,7 @@
       <c r="D54" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E54" s="59"/>
+      <c r="E54" s="60"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -42483,7 +42491,7 @@
       <c r="D55" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E55" s="59"/>
+      <c r="E55" s="60"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -42504,7 +42512,7 @@
       <c r="D56" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E56" s="59"/>
+      <c r="E56" s="60"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -42525,7 +42533,7 @@
       <c r="D57" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E57" s="59"/>
+      <c r="E57" s="60"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -42546,7 +42554,7 @@
       <c r="D58" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E58" s="59"/>
+      <c r="E58" s="60"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -42567,7 +42575,7 @@
       <c r="D59" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E59" s="59"/>
+      <c r="E59" s="60"/>
       <c r="F59" s="7" t="s">
         <v>2698</v>
       </c>
@@ -42592,7 +42600,7 @@
       <c r="D60" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E60" s="59"/>
+      <c r="E60" s="60"/>
       <c r="F60" s="7" t="s">
         <v>2898</v>
       </c>
@@ -42617,7 +42625,7 @@
       <c r="D61" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E61" s="59"/>
+      <c r="E61" s="60"/>
       <c r="F61" s="7" t="s">
         <v>1911</v>
       </c>
@@ -42646,7 +42654,7 @@
       <c r="D62" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E62" s="59"/>
+      <c r="E62" s="60"/>
       <c r="F62" s="7" t="s">
         <v>1917</v>
       </c>
@@ -42675,7 +42683,7 @@
       <c r="D63" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E63" s="59"/>
+      <c r="E63" s="60"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -42696,7 +42704,7 @@
       <c r="D64" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E64" s="59"/>
+      <c r="E64" s="60"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -42717,7 +42725,7 @@
       <c r="D65" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E65" s="59"/>
+      <c r="E65" s="60"/>
       <c r="F65" s="7" t="s">
         <v>1914</v>
       </c>
@@ -42742,7 +42750,7 @@
       <c r="D66" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E66" s="59"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="7" t="s">
         <v>1938</v>
       </c>
@@ -42767,7 +42775,7 @@
       <c r="D67" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E67" s="59"/>
+      <c r="E67" s="60"/>
       <c r="F67" s="7" t="s">
         <v>1722</v>
       </c>
@@ -42792,7 +42800,7 @@
       <c r="D68" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E68" s="59"/>
+      <c r="E68" s="60"/>
       <c r="F68" s="7" t="s">
         <v>1779</v>
       </c>
@@ -42817,7 +42825,7 @@
       <c r="D69" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E69" s="59"/>
+      <c r="E69" s="60"/>
       <c r="F69" s="7" t="s">
         <v>2181</v>
       </c>
@@ -42846,7 +42854,7 @@
       <c r="D70" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E70" s="59"/>
+      <c r="E70" s="60"/>
       <c r="F70" s="7" t="s">
         <v>3085</v>
       </c>
@@ -42869,7 +42877,7 @@
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="59"/>
+      <c r="E71" s="60"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -42890,7 +42898,7 @@
       <c r="D72" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E72" s="59"/>
+      <c r="E72" s="60"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -42911,7 +42919,7 @@
       <c r="D73" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E73" s="59"/>
+      <c r="E73" s="60"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -42932,7 +42940,7 @@
       <c r="D74" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E74" s="59"/>
+      <c r="E74" s="60"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -42953,7 +42961,7 @@
       <c r="D75" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E75" s="59"/>
+      <c r="E75" s="60"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -42974,7 +42982,7 @@
       <c r="D76" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E76" s="59"/>
+      <c r="E76" s="60"/>
       <c r="F76" s="7" t="s">
         <v>2807</v>
       </c>
@@ -42999,7 +43007,7 @@
       <c r="D77" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E77" s="59"/>
+      <c r="E77" s="60"/>
       <c r="F77" s="7" t="s">
         <v>3065</v>
       </c>
@@ -43024,7 +43032,7 @@
       <c r="D78" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E78" s="59"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -43045,7 +43053,7 @@
       <c r="D79" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E79" s="59"/>
+      <c r="E79" s="60"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -43066,7 +43074,7 @@
       <c r="D80" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E80" s="59"/>
+      <c r="E80" s="60"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -43087,7 +43095,7 @@
       <c r="D81" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E81" s="59"/>
+      <c r="E81" s="60"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -43108,7 +43116,7 @@
       <c r="D82" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E82" s="59"/>
+      <c r="E82" s="60"/>
       <c r="F82" s="7" t="s">
         <v>2588</v>
       </c>
@@ -43137,7 +43145,7 @@
       <c r="D83" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E83" s="59"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="7" t="s">
         <v>3104</v>
       </c>
@@ -43166,7 +43174,7 @@
       <c r="D84" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E84" s="59"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -43187,7 +43195,7 @@
       <c r="D85" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E85" s="59"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -43208,7 +43216,7 @@
       <c r="D86" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E86" s="59"/>
+      <c r="E86" s="60"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -43229,7 +43237,7 @@
       <c r="D87" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E87" s="59"/>
+      <c r="E87" s="60"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -43250,7 +43258,7 @@
       <c r="D88" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E88" s="59"/>
+      <c r="E88" s="60"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -43271,7 +43279,7 @@
       <c r="D89" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E89" s="59"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -43292,7 +43300,7 @@
       <c r="D90" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E90" s="59"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -43313,7 +43321,7 @@
       <c r="D91" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E91" s="59"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -43334,7 +43342,7 @@
       <c r="D92" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E92" s="59"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="7" t="s">
         <v>2577</v>
       </c>
@@ -43359,7 +43367,7 @@
       <c r="D93" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E93" s="59"/>
+      <c r="E93" s="60"/>
       <c r="F93" s="7" t="s">
         <v>2942</v>
       </c>
@@ -43384,7 +43392,7 @@
       <c r="D94" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E94" s="59"/>
+      <c r="E94" s="60"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -43405,7 +43413,7 @@
       <c r="D95" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E95" s="59"/>
+      <c r="E95" s="60"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -43426,7 +43434,7 @@
       <c r="D96" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E96" s="59"/>
+      <c r="E96" s="60"/>
       <c r="F96" s="7" t="s">
         <v>2714</v>
       </c>
@@ -43451,7 +43459,7 @@
       <c r="D97" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E97" s="59"/>
+      <c r="E97" s="60"/>
       <c r="F97" s="7" t="s">
         <v>3203</v>
       </c>
@@ -43476,7 +43484,7 @@
       <c r="D98" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E98" s="59"/>
+      <c r="E98" s="60"/>
       <c r="F98" s="7" t="s">
         <v>1723</v>
       </c>
@@ -43505,7 +43513,7 @@
       <c r="D99" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E99" s="59"/>
+      <c r="E99" s="60"/>
       <c r="F99" s="7" t="s">
         <v>520</v>
       </c>
@@ -43534,7 +43542,7 @@
       <c r="D100" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E100" s="59"/>
+      <c r="E100" s="60"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -43555,7 +43563,7 @@
       <c r="D101" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E101" s="59"/>
+      <c r="E101" s="60"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -43576,7 +43584,7 @@
       <c r="D102" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E102" s="59"/>
+      <c r="E102" s="60"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -43597,7 +43605,7 @@
       <c r="D103" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E103" s="59"/>
+      <c r="E103" s="60"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -43612,7 +43620,7 @@
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="59"/>
+      <c r="E104" s="60"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -43633,7 +43641,7 @@
       <c r="D105" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E105" s="59"/>
+      <c r="E105" s="60"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -43654,7 +43662,7 @@
       <c r="D106" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E106" s="59"/>
+      <c r="E106" s="60"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -43675,7 +43683,7 @@
       <c r="D107" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E107" s="59"/>
+      <c r="E107" s="60"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -43696,7 +43704,7 @@
       <c r="D108" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E108" s="59"/>
+      <c r="E108" s="60"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -43717,7 +43725,7 @@
       <c r="D109" s="8" t="s">
         <v>2190</v>
       </c>
-      <c r="E109" s="59"/>
+      <c r="E109" s="60"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -43738,7 +43746,7 @@
       <c r="D110" s="8" t="s">
         <v>2190</v>
       </c>
-      <c r="E110" s="59"/>
+      <c r="E110" s="60"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -43759,7 +43767,7 @@
       <c r="D111" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E111" s="59"/>
+      <c r="E111" s="60"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -43780,7 +43788,7 @@
       <c r="D112" s="28" t="s">
         <v>2169</v>
       </c>
-      <c r="E112" s="59"/>
+      <c r="E112" s="60"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -43837,14 +43845,14 @@
       <c r="E1" s="5" t="s">
         <v>3278</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="7" t="s">
@@ -43859,7 +43867,7 @@
       <c r="D2" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="61" t="s">
         <v>3294</v>
       </c>
       <c r="F2" s="7"/>
@@ -43882,7 +43890,7 @@
       <c r="D3" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -43903,7 +43911,7 @@
       <c r="D4" s="7" t="s">
         <v>2227</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -43924,7 +43932,7 @@
       <c r="D5" s="7" t="s">
         <v>2227</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -43945,7 +43953,7 @@
       <c r="D6" s="7" t="s">
         <v>2242</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -43966,7 +43974,7 @@
       <c r="D7" s="7" t="s">
         <v>2242</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -43987,7 +43995,7 @@
       <c r="D8" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E8" s="61"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="7" t="s">
         <v>1588</v>
       </c>
@@ -44012,7 +44020,7 @@
       <c r="D9" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E9" s="61"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="7" t="s">
         <v>1631</v>
       </c>
@@ -44037,7 +44045,7 @@
       <c r="D10" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E10" s="61"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="7" t="s">
         <v>2200</v>
       </c>
@@ -44062,7 +44070,7 @@
       <c r="D11" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="7" t="s">
         <v>2297</v>
       </c>
@@ -44087,7 +44095,7 @@
       <c r="D12" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -44108,7 +44116,7 @@
       <c r="D13" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E13" s="61"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -44129,7 +44137,7 @@
       <c r="D14" s="18" t="s">
         <v>2232</v>
       </c>
-      <c r="E14" s="61"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -44150,7 +44158,7 @@
       <c r="D15" s="18" t="s">
         <v>2232</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -44171,7 +44179,7 @@
       <c r="D16" s="18" t="s">
         <v>2237</v>
       </c>
-      <c r="E16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -44192,7 +44200,7 @@
       <c r="D17" s="18" t="s">
         <v>2237</v>
       </c>
-      <c r="E17" s="61"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -44213,7 +44221,7 @@
       <c r="D18" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E18" s="61"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="7" t="s">
         <v>1577</v>
       </c>
@@ -44238,7 +44246,7 @@
       <c r="D19" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="7" t="s">
         <v>1574</v>
       </c>
@@ -44263,7 +44271,7 @@
       <c r="D20" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E20" s="61"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -44284,7 +44292,7 @@
       <c r="D21" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -44305,7 +44313,7 @@
       <c r="D22" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="63" t="s">
         <v>3295</v>
       </c>
       <c r="F22" s="7"/>
@@ -44328,7 +44336,7 @@
       <c r="D23" s="28" t="s">
         <v>2078</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -44349,7 +44357,7 @@
       <c r="D24" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="64" t="s">
         <v>3296</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -44376,7 +44384,7 @@
       <c r="D25" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="7" t="s">
         <v>2823</v>
       </c>
@@ -44401,7 +44409,7 @@
       <c r="D26" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E26" s="63"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="7" t="s">
         <v>1543</v>
       </c>
@@ -44426,7 +44434,7 @@
       <c r="D27" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E27" s="63"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="7" t="s">
         <v>1833</v>
       </c>
@@ -44451,7 +44459,7 @@
       <c r="D28" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E28" s="63"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="7" t="s">
         <v>2497</v>
       </c>
@@ -44476,7 +44484,7 @@
       <c r="D29" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E29" s="63"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="7" t="s">
         <v>2785</v>
       </c>
@@ -44501,7 +44509,7 @@
       <c r="D30" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="7" t="s">
         <v>2366</v>
       </c>
@@ -44526,7 +44534,7 @@
       <c r="D31" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E31" s="63"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="7" t="s">
         <v>2611</v>
       </c>
@@ -44551,7 +44559,7 @@
       <c r="D32" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E32" s="63"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="7" t="s">
         <v>1353</v>
       </c>
@@ -44584,7 +44592,7 @@
       <c r="D33" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="7" t="s">
         <v>2544</v>
       </c>
@@ -44617,7 +44625,7 @@
       <c r="D34" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E34" s="63"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="7" t="s">
         <v>2484</v>
       </c>
@@ -44646,7 +44654,7 @@
       <c r="D35" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E35" s="63"/>
+      <c r="E35" s="64"/>
       <c r="F35" s="7" t="s">
         <v>2556</v>
       </c>
@@ -44669,7 +44677,7 @@
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="63"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -44690,7 +44698,7 @@
       <c r="D37" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E37" s="63"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="7" t="s">
         <v>2219</v>
       </c>
@@ -44715,7 +44723,7 @@
       <c r="D38" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E38" s="63"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="7" t="s">
         <v>2724</v>
       </c>
@@ -44734,7 +44742,7 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="63"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -44755,7 +44763,7 @@
       <c r="D40" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E40" s="63"/>
+      <c r="E40" s="64"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -44776,7 +44784,7 @@
       <c r="D41" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E41" s="63"/>
+      <c r="E41" s="64"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -44797,7 +44805,7 @@
       <c r="D42" s="7" t="s">
         <v>2227</v>
       </c>
-      <c r="E42" s="63"/>
+      <c r="E42" s="64"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -44818,7 +44826,7 @@
       <c r="D43" s="7" t="s">
         <v>2227</v>
       </c>
-      <c r="E43" s="63"/>
+      <c r="E43" s="64"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -44839,7 +44847,7 @@
       <c r="D44" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E44" s="63"/>
+      <c r="E44" s="64"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -44860,7 +44868,7 @@
       <c r="D45" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E45" s="63"/>
+      <c r="E45" s="64"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -44881,7 +44889,7 @@
       <c r="D46" s="18" t="s">
         <v>2169</v>
       </c>
-      <c r="E46" s="63"/>
+      <c r="E46" s="64"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -44902,7 +44910,7 @@
       <c r="D47" s="18" t="s">
         <v>2169</v>
       </c>
-      <c r="E47" s="63"/>
+      <c r="E47" s="64"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -44917,7 +44925,7 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="63"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -44938,7 +44946,7 @@
       <c r="D49" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E49" s="63"/>
+      <c r="E49" s="64"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -44959,7 +44967,7 @@
       <c r="D50" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E50" s="63"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -44980,7 +44988,7 @@
       <c r="D51" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E51" s="63"/>
+      <c r="E51" s="64"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -45001,7 +45009,7 @@
       <c r="D52" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E52" s="63"/>
+      <c r="E52" s="64"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -45022,7 +45030,7 @@
       <c r="D53" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E53" s="65" t="s">
         <v>3297</v>
       </c>
       <c r="F53" s="7"/>
@@ -45045,7 +45053,7 @@
       <c r="D54" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E54" s="64"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -45066,7 +45074,7 @@
       <c r="D55" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E55" s="64"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -45087,7 +45095,7 @@
       <c r="D56" s="28" t="s">
         <v>2078</v>
       </c>
-      <c r="E56" s="64"/>
+      <c r="E56" s="65"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -45144,12 +45152,12 @@
       <c r="E1" s="5" t="s">
         <v>3278</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="7" t="s">
@@ -45164,7 +45172,7 @@
       <c r="D2" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>3298</v>
       </c>
       <c r="F2" s="7"/>
@@ -45185,7 +45193,7 @@
       <c r="D3" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="10"/>
@@ -45204,7 +45212,7 @@
       <c r="D4" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="10"/>
@@ -45223,7 +45231,7 @@
       <c r="D5" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="10"/>
@@ -45236,7 +45244,7 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="66"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="10"/>
@@ -45255,7 +45263,7 @@
       <c r="D7" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="10"/>
@@ -45274,7 +45282,7 @@
       <c r="D8" s="28" t="s">
         <v>2078</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="10"/>
@@ -45293,7 +45301,7 @@
       <c r="D9" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="68" t="s">
         <v>3299</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -45318,7 +45326,7 @@
       <c r="D10" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="7" t="s">
         <v>2346</v>
       </c>
@@ -45341,7 +45349,7 @@
       <c r="D11" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="7" t="s">
         <v>2083</v>
       </c>
@@ -45364,7 +45372,7 @@
       <c r="D12" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="7" t="s">
         <v>2291</v>
       </c>
@@ -45381,7 +45389,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="67"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="10"/>
@@ -45400,7 +45408,7 @@
       <c r="D14" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E14" s="67"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="7" t="s">
         <v>2170</v>
       </c>
@@ -45423,7 +45431,7 @@
       <c r="D15" s="7" t="s">
         <v>2169</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="7" t="s">
         <v>2925</v>
       </c>
@@ -45446,7 +45454,7 @@
       <c r="D16" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E16" s="67"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="7" t="s">
         <v>2191</v>
       </c>
@@ -45469,7 +45477,7 @@
       <c r="D17" s="7" t="s">
         <v>2190</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="7" t="s">
         <v>3229</v>
       </c>
@@ -45492,7 +45500,7 @@
       <c r="D18" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="7" t="s">
         <v>2390</v>
       </c>
@@ -45519,7 +45527,7 @@
       <c r="D19" s="18" t="s">
         <v>2180</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="7" t="s">
         <v>3039</v>
       </c>
@@ -45546,7 +45554,7 @@
       <c r="D20" s="18" t="s">
         <v>2398</v>
       </c>
-      <c r="E20" s="67"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="7" t="s">
         <v>2399</v>
       </c>
@@ -45569,7 +45577,7 @@
       <c r="D21" s="25" t="s">
         <v>2398</v>
       </c>
-      <c r="E21" s="67"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="7" t="s">
         <v>3141</v>
       </c>
@@ -45625,12 +45633,12 @@
       <c r="E1" s="5" t="s">
         <v>3278</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="7" t="s">
@@ -45645,7 +45653,7 @@
       <c r="D2" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="70" t="s">
         <v>3300</v>
       </c>
       <c r="F2" s="7"/>
@@ -45666,7 +45674,7 @@
       <c r="D3" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="10"/>
@@ -45685,7 +45693,7 @@
       <c r="D4" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="7" t="s">
         <v>2654</v>
       </c>
@@ -45708,7 +45716,7 @@
       <c r="D5" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="7" t="s">
         <v>503</v>
       </c>
@@ -45731,7 +45739,7 @@
       <c r="D6" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="52" t="s">
         <v>3301</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -45756,7 +45764,7 @@
       <c r="D7" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="7" t="s">
         <v>1903</v>
       </c>
@@ -45779,7 +45787,7 @@
       <c r="D8" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="7" t="s">
         <v>1559</v>
       </c>
@@ -45806,7 +45814,7 @@
       <c r="D9" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="7" t="s">
         <v>1476</v>
       </c>
@@ -45833,7 +45841,7 @@
       <c r="D10" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="54" t="s">
         <v>3302</v>
       </c>
       <c r="F10" s="7"/>
@@ -45854,7 +45862,7 @@
       <c r="D11" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="10"/>
@@ -45873,7 +45881,7 @@
       <c r="D12" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="7" t="s">
         <v>2762</v>
       </c>
@@ -45896,7 +45904,7 @@
       <c r="D13" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="7" t="s">
         <v>3161</v>
       </c>
@@ -45919,7 +45927,7 @@
       <c r="D14" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="10"/>
@@ -45938,7 +45946,7 @@
       <c r="D15" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="10"/>
@@ -45957,7 +45965,7 @@
       <c r="D16" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="10"/>
@@ -45976,7 +45984,7 @@
       <c r="D17" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E17" s="53"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="10"/>
@@ -45995,7 +46003,7 @@
       <c r="D18" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="55" t="s">
         <v>3303</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -46020,7 +46028,7 @@
       <c r="D19" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="7" t="s">
         <v>2956</v>
       </c>
@@ -46043,7 +46051,7 @@
       <c r="D20" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="7" t="s">
         <v>2870</v>
       </c>
@@ -46066,7 +46074,7 @@
       <c r="D21" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="7" t="s">
         <v>3262</v>
       </c>
@@ -46089,7 +46097,7 @@
       <c r="D22" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="7" t="s">
         <v>2644</v>
       </c>
@@ -46112,7 +46120,7 @@
       <c r="D23" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="7" t="s">
         <v>3055</v>
       </c>
@@ -46135,7 +46143,7 @@
       <c r="D24" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="7" t="s">
         <v>2650</v>
       </c>
@@ -46158,7 +46166,7 @@
       <c r="D25" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="7" t="s">
         <v>3156</v>
       </c>
@@ -46181,7 +46189,7 @@
       <c r="D26" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="69" t="s">
         <v>3304</v>
       </c>
       <c r="F26" s="10"/>
@@ -46202,7 +46210,7 @@
       <c r="D27" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -46221,7 +46229,7 @@
       <c r="D28" s="18" t="s">
         <v>2078</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -46240,7 +46248,7 @@
       <c r="D29" s="25" t="s">
         <v>2078</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -46266,7 +46274,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -46277,7 +46285,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="6" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="49" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="59.5" style="48" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
@@ -46313,7 +46321,7 @@
       <c r="G1" s="2" t="s">
         <v>3331</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="49" t="s">
         <v>3352</v>
       </c>
       <c r="I1" s="48" t="s">
@@ -46342,7 +46350,7 @@
       <c r="G2" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="49">
         <v>1</v>
       </c>
       <c r="I2" s="48" t="s">
@@ -46371,7 +46379,7 @@
       <c r="G3" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="49">
         <v>2</v>
       </c>
       <c r="I3" s="48" t="s">
@@ -46400,7 +46408,7 @@
       <c r="G4" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="49">
         <v>3</v>
       </c>
       <c r="I4" s="48" t="s">
@@ -46429,7 +46437,7 @@
       <c r="G5" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="H5" s="70">
+      <c r="H5" s="49">
         <v>3</v>
       </c>
       <c r="I5" s="48" t="s">
@@ -46458,7 +46466,7 @@
       <c r="G6" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="49">
         <v>4</v>
       </c>
       <c r="I6" s="48" t="s">
@@ -46487,7 +46495,7 @@
       <c r="G7" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="49">
         <v>4</v>
       </c>
       <c r="I7" s="48" t="s">
@@ -46516,7 +46524,7 @@
       <c r="G8" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="49">
         <v>5</v>
       </c>
       <c r="I8" s="48" t="s">
@@ -46545,7 +46553,7 @@
       <c r="G9" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="49">
         <v>6</v>
       </c>
       <c r="I9" s="48" t="s">
@@ -46574,7 +46582,7 @@
       <c r="G10" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="49">
         <v>7</v>
       </c>
       <c r="I10" s="48" t="s">
@@ -46603,7 +46611,7 @@
       <c r="G11" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="49">
         <v>8</v>
       </c>
       <c r="I11" s="48" t="s">
@@ -46632,7 +46640,7 @@
       <c r="G12" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="49">
         <v>9</v>
       </c>
       <c r="I12" s="48" t="s">
@@ -46661,7 +46669,7 @@
       <c r="G13" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="49">
         <v>11</v>
       </c>
       <c r="I13" s="48" t="s">
@@ -46671,7 +46679,7 @@
   </sheetData>
   <autoFilter ref="A1:D12" xr:uid="{1A49B84F-07C6-0945-BBB1-B964C9494900}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
-    <sortCondition ref="I13:I12"/>
+    <sortCondition ref="I12:I13"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58318,10 +58326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D3CE84-AC9B-A147-8309-3606006F464C}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -58340,70 +58348,88 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1997</v>
+        <v>3355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1996</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2066</v>
+        <v>2000</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2065</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>3318</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>2068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3356</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{1996406D-8AFF-7241-A49D-CE2258334EFB}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{B9F0FE04-0DFE-664C-AED3-E1AD38459AC1}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{997F97D9-B7FF-2E46-9B9F-9B1B0B1ADF7F}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{4E419700-7B24-0F4F-A773-E6393A077B02}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{DE18DD20-98B3-6E4B-B3F0-1CCF58380622}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{B492CCA9-C2E6-8D49-9E99-1462A77DD840}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{A1BDFECE-6F27-8F4C-9CCE-1F05A1B2931D}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{1996406D-8AFF-7241-A49D-CE2258334EFB}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{B9F0FE04-0DFE-664C-AED3-E1AD38459AC1}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{997F97D9-B7FF-2E46-9B9F-9B1B0B1ADF7F}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{4E419700-7B24-0F4F-A773-E6393A077B02}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{DE18DD20-98B3-6E4B-B3F0-1CCF58380622}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{B492CCA9-C2E6-8D49-9E99-1462A77DD840}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{A1BDFECE-6F27-8F4C-9CCE-1F05A1B2931D}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{EC48DC90-964F-5241-9596-A81B86E74906}"/>
+    <hyperlink ref="B2" r:id="rId9" xr:uid="{3E7E0E7C-02FB-2B45-91A8-CF8F715592B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -62314,14 +62340,14 @@
       <c r="D1" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>2075</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="18">
       <c r="A2" s="7" t="s">

--- a/public/cubecode.xlsx
+++ b/public/cubecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lh/myProjects/cubefiber/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F860BA-208F-624D-AC05-5819F2F6F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D41F55-74CD-8C4E-8ED8-925F5FC4BA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="5120" windowWidth="43700" windowHeight="28180" activeTab="4" xr2:uid="{0CA53E6B-C3F2-0D46-9617-21A54FC1121D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9204" uniqueCount="3358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9206" uniqueCount="3360">
   <si>
     <t>corner</t>
   </si>
@@ -32447,6 +32447,14 @@
   </si>
   <si>
     <t>魔方解法网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubiksplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rubiksplace.com/speedcubing/F2L-algorithms/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58326,10 +58334,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D3CE84-AC9B-A147-8309-3606006F464C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -58356,80 +58364,89 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3355</v>
+        <v>3358</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3354</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1997</v>
+        <v>3355</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1996</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2066</v>
+        <v>2000</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2065</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3318</v>
+        <v>2069</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>3357</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>3356</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{1996406D-8AFF-7241-A49D-CE2258334EFB}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{B9F0FE04-0DFE-664C-AED3-E1AD38459AC1}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{997F97D9-B7FF-2E46-9B9F-9B1B0B1ADF7F}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{4E419700-7B24-0F4F-A773-E6393A077B02}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{DE18DD20-98B3-6E4B-B3F0-1CCF58380622}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{B492CCA9-C2E6-8D49-9E99-1462A77DD840}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{A1BDFECE-6F27-8F4C-9CCE-1F05A1B2931D}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{EC48DC90-964F-5241-9596-A81B86E74906}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{1996406D-8AFF-7241-A49D-CE2258334EFB}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{B9F0FE04-0DFE-664C-AED3-E1AD38459AC1}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{997F97D9-B7FF-2E46-9B9F-9B1B0B1ADF7F}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{4E419700-7B24-0F4F-A773-E6393A077B02}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{DE18DD20-98B3-6E4B-B3F0-1CCF58380622}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{B492CCA9-C2E6-8D49-9E99-1462A77DD840}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{A1BDFECE-6F27-8F4C-9CCE-1F05A1B2931D}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{EC48DC90-964F-5241-9596-A81B86E74906}"/>
     <hyperlink ref="B2" r:id="rId9" xr:uid="{3E7E0E7C-02FB-2B45-91A8-CF8F715592B3}"/>
+    <hyperlink ref="B3" r:id="rId10" xr:uid="{77733918-5498-BB43-9079-EF3C6E24BD2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
